--- a/010-外部設計/014-画面レイアウト_画面入出力項目一覧/014-4-外部設計書(画面・帳票仕様)_ショッピング_会員登録.xlsx
+++ b/010-外部設計/014-画面レイアウト_画面入出力項目一覧/014-4-外部設計書(画面・帳票仕様)_ショッピング_会員登録.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638D787B-9894-4FEE-B9B0-00B68BA2DC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="6516" yWindow="144" windowWidth="14196" windowHeight="12096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面レイアウト図" sheetId="2" r:id="rId1"/>
@@ -13,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">画面レイアウト図!$A$1:$BE$118</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">画面入出力項目一覧!$A$1:$BC$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面入出力項目一覧!$A$1:$BC$47</definedName>
     <definedName name="部品種別">OFFSET('（データリスト）'!$A$1,0,0,COUNTA('（データリスト）'!$A:$A),1)</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -21,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="W7" authorId="0" shapeId="0">
+    <comment ref="W7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W22" authorId="0" shapeId="0">
+    <comment ref="W22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W34" authorId="0" shapeId="0">
+    <comment ref="W38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="77">
   <si>
     <t>業務</t>
   </si>
@@ -548,15 +549,72 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>会員ID</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お名前</t>
+    <rPh sb="1" eb="3">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご住所</t>
+    <rPh sb="1" eb="3">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registUser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registUserConfirm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registUserCommit</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -603,6 +661,13 @@
     <font>
       <sz val="10"/>
       <color indexed="81"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -883,7 +948,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1001,14 +1066,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1021,33 +1116,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1070,11 +1138,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1084,6 +1152,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1124,7 +1198,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1192,7 +1272,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1247,68 +1333,48 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>119744</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:rowOff>97972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>163287</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>130629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{115B0C6F-E307-4DDC-86FA-A885F047C0C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect b="5712"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="337458" y="24895628"/>
-          <a:ext cx="11136086" cy="5127172"/>
+          <a:off x="1012371" y="16317686"/>
+          <a:ext cx="10036630" cy="5323114"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF">
-            <a:shade val="85000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="88900" cap="sq">
+        <a:ln w="38100">
           <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="40000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="twoPt" dir="t">
-            <a:rot lat="0" lon="0" rev="7200000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT w="25400" h="19050"/>
-          <a:contourClr>
-            <a:srgbClr val="FFFFFF"/>
-          </a:contourClr>
-        </a:sp3d>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1392,6 +1458,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1427,6 +1510,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1602,23 +1702,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:IT118"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="AD86" sqref="AD86:AL86"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="BC110" sqref="BC110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1020" width="2.625" style="4" customWidth="1"/>
+    <col min="1" max="1020" width="2.6328125" style="4" customWidth="1"/>
     <col min="1021" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>7</v>
       </c>
@@ -1892,7 +1992,7 @@
       <c r="IS1" s="8"/>
       <c r="IT1" s="8"/>
     </row>
-    <row r="2" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -2152,7 +2252,7 @@
       <c r="IS2" s="8"/>
       <c r="IT2" s="8"/>
     </row>
-    <row r="3" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2408,7 +2508,7 @@
       <c r="IS3" s="8"/>
       <c r="IT3" s="8"/>
     </row>
-    <row r="4" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>12</v>
       </c>
@@ -2672,7 +2772,7 @@
       <c r="IS4" s="8"/>
       <c r="IT4" s="8"/>
     </row>
-    <row r="5" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -2928,7 +3028,7 @@
       <c r="IS5" s="8"/>
       <c r="IT5" s="8"/>
     </row>
-    <row r="6" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -3184,7 +3284,7 @@
       <c r="IS6" s="8"/>
       <c r="IT6" s="8"/>
     </row>
-    <row r="7" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -3440,7 +3540,7 @@
       <c r="IS7" s="8"/>
       <c r="IT7" s="8"/>
     </row>
-    <row r="8" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -3696,7 +3796,7 @@
       <c r="IS8" s="8"/>
       <c r="IT8" s="8"/>
     </row>
-    <row r="9" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -3952,7 +4052,7 @@
       <c r="IS9" s="8"/>
       <c r="IT9" s="8"/>
     </row>
-    <row r="10" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -4208,7 +4308,7 @@
       <c r="IS10" s="8"/>
       <c r="IT10" s="8"/>
     </row>
-    <row r="11" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -4464,7 +4564,7 @@
       <c r="IS11" s="8"/>
       <c r="IT11" s="8"/>
     </row>
-    <row r="12" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -4720,7 +4820,7 @@
       <c r="IS12" s="8"/>
       <c r="IT12" s="8"/>
     </row>
-    <row r="13" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -4976,7 +5076,7 @@
       <c r="IS13" s="8"/>
       <c r="IT13" s="8"/>
     </row>
-    <row r="14" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -5232,7 +5332,7 @@
       <c r="IS14" s="8"/>
       <c r="IT14" s="8"/>
     </row>
-    <row r="15" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -5488,7 +5588,7 @@
       <c r="IS15" s="8"/>
       <c r="IT15" s="8"/>
     </row>
-    <row r="16" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -5744,7 +5844,7 @@
       <c r="IS16" s="8"/>
       <c r="IT16" s="8"/>
     </row>
-    <row r="17" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -6000,7 +6100,7 @@
       <c r="IS17" s="8"/>
       <c r="IT17" s="8"/>
     </row>
-    <row r="18" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -6256,7 +6356,7 @@
       <c r="IS18" s="8"/>
       <c r="IT18" s="8"/>
     </row>
-    <row r="19" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -6512,7 +6612,7 @@
       <c r="IS19" s="8"/>
       <c r="IT19" s="8"/>
     </row>
-    <row r="20" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -6768,7 +6868,7 @@
       <c r="IS20" s="8"/>
       <c r="IT20" s="8"/>
     </row>
-    <row r="21" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -7024,7 +7124,7 @@
       <c r="IS21" s="8"/>
       <c r="IT21" s="8"/>
     </row>
-    <row r="22" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -7280,7 +7380,7 @@
       <c r="IS22" s="8"/>
       <c r="IT22" s="8"/>
     </row>
-    <row r="23" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -7536,7 +7636,7 @@
       <c r="IS23" s="8"/>
       <c r="IT23" s="8"/>
     </row>
-    <row r="24" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -7792,7 +7892,7 @@
       <c r="IS24" s="8"/>
       <c r="IT24" s="8"/>
     </row>
-    <row r="25" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -8048,7 +8148,7 @@
       <c r="IS25" s="8"/>
       <c r="IT25" s="8"/>
     </row>
-    <row r="26" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -8304,7 +8404,7 @@
       <c r="IS26" s="8"/>
       <c r="IT26" s="8"/>
     </row>
-    <row r="27" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -8560,7 +8660,7 @@
       <c r="IS27" s="8"/>
       <c r="IT27" s="8"/>
     </row>
-    <row r="28" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -8816,7 +8916,7 @@
       <c r="IS28" s="8"/>
       <c r="IT28" s="8"/>
     </row>
-    <row r="29" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -9072,7 +9172,7 @@
       <c r="IS29" s="8"/>
       <c r="IT29" s="8"/>
     </row>
-    <row r="30" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -9328,7 +9428,7 @@
       <c r="IS30" s="8"/>
       <c r="IT30" s="8"/>
     </row>
-    <row r="31" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -9584,7 +9684,7 @@
       <c r="IS31" s="8"/>
       <c r="IT31" s="8"/>
     </row>
-    <row r="32" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
@@ -9645,7 +9745,7 @@
       <c r="BF32" s="7"/>
       <c r="BG32" s="7"/>
     </row>
-    <row r="33" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -9706,7 +9806,7 @@
       <c r="BF33" s="7"/>
       <c r="BG33" s="7"/>
     </row>
-    <row r="34" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -9767,7 +9867,7 @@
       <c r="BF34" s="7"/>
       <c r="BG34" s="7"/>
     </row>
-    <row r="35" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -9828,7 +9928,7 @@
       <c r="BF35" s="7"/>
       <c r="BG35" s="7"/>
     </row>
-    <row r="36" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -9889,7 +9989,7 @@
       <c r="BF36" s="7"/>
       <c r="BG36" s="7"/>
     </row>
-    <row r="37" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -9950,7 +10050,7 @@
       <c r="BF37" s="7"/>
       <c r="BG37" s="7"/>
     </row>
-    <row r="38" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
@@ -10011,7 +10111,7 @@
       <c r="BF38" s="7"/>
       <c r="BG38" s="7"/>
     </row>
-    <row r="39" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -10072,7 +10172,7 @@
       <c r="BF39" s="7"/>
       <c r="BG39" s="7"/>
     </row>
-    <row r="40" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -10132,7 +10232,7 @@
       <c r="BE40" s="21"/>
       <c r="BF40" s="7"/>
     </row>
-    <row r="41" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -10191,7 +10291,7 @@
       <c r="BD41" s="20"/>
       <c r="BE41" s="21"/>
     </row>
-    <row r="42" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A42" s="19"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -10250,7 +10350,7 @@
       <c r="BD42" s="20"/>
       <c r="BE42" s="21"/>
     </row>
-    <row r="43" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -10309,7 +10409,7 @@
       <c r="BD43" s="20"/>
       <c r="BE43" s="21"/>
     </row>
-    <row r="44" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -10368,7 +10468,7 @@
       <c r="BD44" s="20"/>
       <c r="BE44" s="21"/>
     </row>
-    <row r="45" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A45" s="22"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -10427,7 +10527,7 @@
       <c r="BD45" s="23"/>
       <c r="BE45" s="24"/>
     </row>
-    <row r="46" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
         <v>7</v>
       </c>
@@ -10701,7 +10801,7 @@
       <c r="IS46" s="8"/>
       <c r="IT46" s="8"/>
     </row>
-    <row r="47" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="36"/>
       <c r="B47" s="37"/>
       <c r="C47" s="37"/>
@@ -10961,7 +11061,7 @@
       <c r="IS47" s="8"/>
       <c r="IT47" s="8"/>
     </row>
-    <row r="48" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -11217,7 +11317,7 @@
       <c r="IS48" s="8"/>
       <c r="IT48" s="8"/>
     </row>
-    <row r="49" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="32" t="s">
         <v>12</v>
       </c>
@@ -11481,7 +11581,7 @@
       <c r="IS49" s="8"/>
       <c r="IT49" s="8"/>
     </row>
-    <row r="50" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="32"/>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
@@ -11737,7 +11837,7 @@
       <c r="IS50" s="8"/>
       <c r="IT50" s="8"/>
     </row>
-    <row r="51" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -11993,7 +12093,7 @@
       <c r="IS51" s="8"/>
       <c r="IT51" s="8"/>
     </row>
-    <row r="52" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -12249,7 +12349,7 @@
       <c r="IS52" s="8"/>
       <c r="IT52" s="8"/>
     </row>
-    <row r="53" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -12505,7 +12605,7 @@
       <c r="IS53" s="8"/>
       <c r="IT53" s="8"/>
     </row>
-    <row r="54" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -12761,7 +12861,7 @@
       <c r="IS54" s="8"/>
       <c r="IT54" s="8"/>
     </row>
-    <row r="55" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -13017,7 +13117,7 @@
       <c r="IS55" s="8"/>
       <c r="IT55" s="8"/>
     </row>
-    <row r="56" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -13273,7 +13373,7 @@
       <c r="IS56" s="8"/>
       <c r="IT56" s="8"/>
     </row>
-    <row r="57" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -13529,7 +13629,7 @@
       <c r="IS57" s="8"/>
       <c r="IT57" s="8"/>
     </row>
-    <row r="58" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -13785,7 +13885,7 @@
       <c r="IS58" s="8"/>
       <c r="IT58" s="8"/>
     </row>
-    <row r="59" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -14041,7 +14141,7 @@
       <c r="IS59" s="8"/>
       <c r="IT59" s="8"/>
     </row>
-    <row r="60" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -14297,7 +14397,7 @@
       <c r="IS60" s="8"/>
       <c r="IT60" s="8"/>
     </row>
-    <row r="61" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -14553,7 +14653,7 @@
       <c r="IS61" s="8"/>
       <c r="IT61" s="8"/>
     </row>
-    <row r="62" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -14809,7 +14909,7 @@
       <c r="IS62" s="8"/>
       <c r="IT62" s="8"/>
     </row>
-    <row r="63" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -15065,7 +15165,7 @@
       <c r="IS63" s="8"/>
       <c r="IT63" s="8"/>
     </row>
-    <row r="64" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -15321,7 +15421,7 @@
       <c r="IS64" s="8"/>
       <c r="IT64" s="8"/>
     </row>
-    <row r="65" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -15577,7 +15677,7 @@
       <c r="IS65" s="8"/>
       <c r="IT65" s="8"/>
     </row>
-    <row r="66" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="13"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -15833,7 +15933,7 @@
       <c r="IS66" s="8"/>
       <c r="IT66" s="8"/>
     </row>
-    <row r="67" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="13"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -16089,7 +16189,7 @@
       <c r="IS67" s="8"/>
       <c r="IT67" s="8"/>
     </row>
-    <row r="68" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="13"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -16345,7 +16445,7 @@
       <c r="IS68" s="8"/>
       <c r="IT68" s="8"/>
     </row>
-    <row r="69" spans="1:254" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:254" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="13"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -16601,7 +16701,7 @@
       <c r="IS69" s="8"/>
       <c r="IT69" s="8"/>
     </row>
-    <row r="70" spans="1:254" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:254" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -16857,7 +16957,7 @@
       <c r="IS70" s="8"/>
       <c r="IT70" s="8"/>
     </row>
-    <row r="71" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -17113,7 +17213,7 @@
       <c r="IS71" s="8"/>
       <c r="IT71" s="8"/>
     </row>
-    <row r="72" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="19"/>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
@@ -17369,7 +17469,7 @@
       <c r="IS72" s="8"/>
       <c r="IT72" s="8"/>
     </row>
-    <row r="73" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="19"/>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
@@ -17625,7 +17725,7 @@
       <c r="IS73" s="8"/>
       <c r="IT73" s="8"/>
     </row>
-    <row r="74" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="19"/>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
@@ -17881,7 +17981,7 @@
       <c r="IS74" s="8"/>
       <c r="IT74" s="8"/>
     </row>
-    <row r="75" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="19"/>
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
@@ -18137,7 +18237,7 @@
       <c r="IS75" s="8"/>
       <c r="IT75" s="8"/>
     </row>
-    <row r="76" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="19"/>
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
@@ -18393,7 +18493,7 @@
       <c r="IS76" s="8"/>
       <c r="IT76" s="8"/>
     </row>
-    <row r="77" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="19"/>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
@@ -18649,7 +18749,7 @@
       <c r="IS77" s="8"/>
       <c r="IT77" s="8"/>
     </row>
-    <row r="78" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="19"/>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
@@ -18905,7 +19005,7 @@
       <c r="IS78" s="8"/>
       <c r="IT78" s="8"/>
     </row>
-    <row r="79" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="19"/>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
@@ -19161,7 +19261,7 @@
       <c r="IS79" s="8"/>
       <c r="IT79" s="8"/>
     </row>
-    <row r="80" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="19"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -19417,7 +19517,7 @@
       <c r="IS80" s="8"/>
       <c r="IT80" s="8"/>
     </row>
-    <row r="81" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="19"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
@@ -19673,7 +19773,7 @@
       <c r="IS81" s="8"/>
       <c r="IT81" s="8"/>
     </row>
-    <row r="82" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="22"/>
       <c r="B82" s="23"/>
       <c r="C82" s="23"/>
@@ -19929,7 +20029,7 @@
       <c r="IS82" s="8"/>
       <c r="IT82" s="8"/>
     </row>
-    <row r="83" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A83" s="20"/>
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
@@ -19990,7 +20090,7 @@
       <c r="BF83" s="7"/>
       <c r="BG83" s="7"/>
     </row>
-    <row r="84" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A84" s="20"/>
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
@@ -20051,7 +20151,7 @@
       <c r="BF84" s="7"/>
       <c r="BG84" s="7"/>
     </row>
-    <row r="85" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A85" s="33" t="s">
         <v>7</v>
       </c>
@@ -20130,7 +20230,7 @@
       <c r="BF85" s="7"/>
       <c r="BG85" s="7"/>
     </row>
-    <row r="86" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A86" s="36"/>
       <c r="B86" s="37"/>
       <c r="C86" s="37"/>
@@ -20195,7 +20295,7 @@
       <c r="BF86" s="7"/>
       <c r="BG86" s="7"/>
     </row>
-    <row r="87" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -20256,7 +20356,7 @@
       <c r="BF87" s="7"/>
       <c r="BG87" s="7"/>
     </row>
-    <row r="88" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A88" s="32" t="s">
         <v>12</v>
       </c>
@@ -20325,7 +20425,7 @@
       <c r="BF88" s="7"/>
       <c r="BG88" s="7"/>
     </row>
-    <row r="89" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A89" s="32"/>
       <c r="B89" s="32"/>
       <c r="C89" s="32"/>
@@ -20386,7 +20486,7 @@
       <c r="BF89" s="7"/>
       <c r="BG89" s="7"/>
     </row>
-    <row r="90" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -20447,7 +20547,7 @@
       <c r="BF90" s="7"/>
       <c r="BG90" s="7"/>
     </row>
-    <row r="91" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -20508,7 +20608,7 @@
       <c r="BF91" s="7"/>
       <c r="BG91" s="7"/>
     </row>
-    <row r="92" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A92" s="13"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -20569,7 +20669,7 @@
       <c r="BF92" s="7"/>
       <c r="BG92" s="7"/>
     </row>
-    <row r="93" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A93" s="13"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -20629,7 +20729,7 @@
       <c r="BE93" s="16"/>
       <c r="BF93" s="7"/>
     </row>
-    <row r="94" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A94" s="13"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -20688,7 +20788,7 @@
       <c r="BD94" s="14"/>
       <c r="BE94" s="16"/>
     </row>
-    <row r="95" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A95" s="13"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -20747,7 +20847,7 @@
       <c r="BD95" s="14"/>
       <c r="BE95" s="16"/>
     </row>
-    <row r="96" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A96" s="13"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -20806,7 +20906,7 @@
       <c r="BD96" s="14"/>
       <c r="BE96" s="16"/>
     </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A97" s="13"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -20865,7 +20965,7 @@
       <c r="BD97" s="14"/>
       <c r="BE97" s="16"/>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A98" s="13"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -20924,7 +21024,7 @@
       <c r="BD98" s="14"/>
       <c r="BE98" s="16"/>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A99" s="13"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -20983,7 +21083,7 @@
       <c r="BD99" s="14"/>
       <c r="BE99" s="16"/>
     </row>
-    <row r="100" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="13"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -21042,7 +21142,7 @@
       <c r="BD100" s="14"/>
       <c r="BE100" s="16"/>
     </row>
-    <row r="101" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="13"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -21101,7 +21201,7 @@
       <c r="BD101" s="14"/>
       <c r="BE101" s="16"/>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A102" s="13"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -21160,7 +21260,7 @@
       <c r="BD102" s="14"/>
       <c r="BE102" s="16"/>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A103" s="13"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -21219,7 +21319,7 @@
       <c r="BD103" s="14"/>
       <c r="BE103" s="16"/>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A104" s="13"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -21278,7 +21378,7 @@
       <c r="BD104" s="14"/>
       <c r="BE104" s="16"/>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A105" s="13"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -21337,7 +21437,7 @@
       <c r="BD105" s="14"/>
       <c r="BE105" s="16"/>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A106" s="13"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -21396,7 +21496,7 @@
       <c r="BD106" s="14"/>
       <c r="BE106" s="16"/>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A107" s="13"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -21455,7 +21555,7 @@
       <c r="BD107" s="14"/>
       <c r="BE107" s="16"/>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A108" s="13"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -21514,7 +21614,7 @@
       <c r="BD108" s="14"/>
       <c r="BE108" s="16"/>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A109" s="19"/>
       <c r="B109" s="20"/>
       <c r="C109" s="20"/>
@@ -21573,7 +21673,7 @@
       <c r="BD109" s="20"/>
       <c r="BE109" s="21"/>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A110" s="19"/>
       <c r="B110" s="20"/>
       <c r="C110" s="20"/>
@@ -21632,7 +21732,7 @@
       <c r="BD110" s="20"/>
       <c r="BE110" s="21"/>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A111" s="19"/>
       <c r="B111" s="20"/>
       <c r="C111" s="20"/>
@@ -21691,7 +21791,7 @@
       <c r="BD111" s="20"/>
       <c r="BE111" s="21"/>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A112" s="19"/>
       <c r="B112" s="20"/>
       <c r="C112" s="20"/>
@@ -21750,7 +21850,7 @@
       <c r="BD112" s="20"/>
       <c r="BE112" s="21"/>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A113" s="19"/>
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
@@ -21809,7 +21909,7 @@
       <c r="BD113" s="20"/>
       <c r="BE113" s="21"/>
     </row>
-    <row r="114" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A114" s="19"/>
       <c r="B114" s="20"/>
       <c r="C114" s="20"/>
@@ -21868,7 +21968,7 @@
       <c r="BD114" s="20"/>
       <c r="BE114" s="21"/>
     </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A115" s="19"/>
       <c r="B115" s="20"/>
       <c r="C115" s="20"/>
@@ -21927,7 +22027,7 @@
       <c r="BD115" s="20"/>
       <c r="BE115" s="21"/>
     </row>
-    <row r="116" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A116" s="19"/>
       <c r="B116" s="20"/>
       <c r="C116" s="20"/>
@@ -21986,7 +22086,7 @@
       <c r="BD116" s="20"/>
       <c r="BE116" s="21"/>
     </row>
-    <row r="117" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A117" s="19"/>
       <c r="B117" s="20"/>
       <c r="C117" s="20"/>
@@ -22045,7 +22145,7 @@
       <c r="BD117" s="20"/>
       <c r="BE117" s="21"/>
     </row>
-    <row r="118" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A118" s="22"/>
       <c r="B118" s="23"/>
       <c r="C118" s="23"/>
@@ -22183,24 +22283,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:HY39"/>
+  <dimension ref="A1:HY47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="BP20" sqref="BP20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="55" width="2.5" style="1" customWidth="1"/>
-    <col min="56" max="955" width="2.625" style="1" customWidth="1"/>
+    <col min="1" max="55" width="2.453125" style="1" customWidth="1"/>
+    <col min="56" max="955" width="2.6328125" style="1" customWidth="1"/>
     <col min="956" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>8</v>
       </c>
@@ -22453,7 +22553,7 @@
       <c r="HX1" s="3"/>
       <c r="HY1" s="3"/>
     </row>
-    <row r="2" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -22692,7 +22792,7 @@
       <c r="HX2" s="3"/>
       <c r="HY2" s="3"/>
     </row>
-    <row r="3" spans="1:233" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:233" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -22927,70 +23027,70 @@
       <c r="HX3" s="3"/>
       <c r="HY3" s="3"/>
     </row>
-    <row r="4" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+    <row r="4" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="57" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="60" t="s">
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="57" t="s">
-        <v>43</v>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="58" t="s">
+        <v>74</v>
       </c>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="57"/>
-      <c r="AM4" s="57"/>
-      <c r="AN4" s="57"/>
-      <c r="AO4" s="57"/>
-      <c r="AP4" s="57"/>
-      <c r="AQ4" s="57"/>
-      <c r="AR4" s="57"/>
-      <c r="AS4" s="57"/>
-      <c r="AT4" s="57"/>
-      <c r="AU4" s="57"/>
-      <c r="AV4" s="57"/>
-      <c r="AW4" s="57"/>
-      <c r="AX4" s="57"/>
-      <c r="AY4" s="57"/>
-      <c r="AZ4" s="57"/>
-      <c r="BA4" s="57"/>
-      <c r="BB4" s="57"/>
-      <c r="BC4" s="57"/>
+      <c r="AD4" s="58"/>
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="58"/>
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="58"/>
+      <c r="AO4" s="58"/>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="58"/>
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="58"/>
+      <c r="AV4" s="58"/>
+      <c r="AW4" s="58"/>
+      <c r="AX4" s="58"/>
+      <c r="AY4" s="58"/>
+      <c r="AZ4" s="58"/>
+      <c r="BA4" s="58"/>
+      <c r="BB4" s="58"/>
+      <c r="BC4" s="58"/>
       <c r="BD4" s="3"/>
       <c r="BE4" s="3"/>
       <c r="BF4" s="3"/>
@@ -23170,62 +23270,62 @@
       <c r="HX4" s="3"/>
       <c r="HY4" s="3"/>
     </row>
-    <row r="5" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="61"/>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="61"/>
-      <c r="AB5" s="61"/>
-      <c r="AC5" s="62"/>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="62"/>
-      <c r="AF5" s="62"/>
-      <c r="AG5" s="62"/>
-      <c r="AH5" s="62"/>
-      <c r="AI5" s="62"/>
-      <c r="AJ5" s="62"/>
-      <c r="AK5" s="62"/>
-      <c r="AL5" s="62"/>
-      <c r="AM5" s="62"/>
-      <c r="AN5" s="62"/>
-      <c r="AO5" s="62"/>
-      <c r="AP5" s="62"/>
-      <c r="AQ5" s="62"/>
-      <c r="AR5" s="62"/>
-      <c r="AS5" s="62"/>
-      <c r="AT5" s="62"/>
-      <c r="AU5" s="62"/>
-      <c r="AV5" s="62"/>
-      <c r="AW5" s="62"/>
-      <c r="AX5" s="62"/>
-      <c r="AY5" s="62"/>
-      <c r="AZ5" s="62"/>
-      <c r="BA5" s="62"/>
-      <c r="BB5" s="62"/>
-      <c r="BC5" s="62"/>
+    <row r="5" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="64"/>
+      <c r="AI5" s="64"/>
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="64"/>
+      <c r="AL5" s="64"/>
+      <c r="AM5" s="64"/>
+      <c r="AN5" s="64"/>
+      <c r="AO5" s="64"/>
+      <c r="AP5" s="64"/>
+      <c r="AQ5" s="64"/>
+      <c r="AR5" s="64"/>
+      <c r="AS5" s="64"/>
+      <c r="AT5" s="64"/>
+      <c r="AU5" s="64"/>
+      <c r="AV5" s="64"/>
+      <c r="AW5" s="64"/>
+      <c r="AX5" s="64"/>
+      <c r="AY5" s="64"/>
+      <c r="AZ5" s="64"/>
+      <c r="BA5" s="64"/>
+      <c r="BB5" s="64"/>
+      <c r="BC5" s="64"/>
       <c r="BD5" s="3"/>
       <c r="BE5" s="3"/>
       <c r="BF5" s="3"/>
@@ -23405,7 +23505,7 @@
       <c r="HX5" s="3"/>
       <c r="HY5" s="3"/>
     </row>
-    <row r="6" spans="1:233" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:233" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -23625,7 +23725,7 @@
       <c r="HQ6" s="3"/>
       <c r="HR6" s="3"/>
     </row>
-    <row r="7" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>24</v>
       </c>
@@ -23819,7 +23919,7 @@
       <c r="HI7" s="3"/>
       <c r="HJ7" s="3"/>
     </row>
-    <row r="8" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -24003,72 +24103,72 @@
       <c r="HI8" s="3"/>
       <c r="HJ8" s="3"/>
     </row>
-    <row r="9" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+    <row r="9" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47" t="s">
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47" t="s">
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="39" t="s">
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="46" t="s">
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="AF9" s="46"/>
-      <c r="AG9" s="46"/>
-      <c r="AH9" s="46"/>
-      <c r="AI9" s="46"/>
-      <c r="AJ9" s="46"/>
-      <c r="AK9" s="46"/>
-      <c r="AL9" s="46"/>
-      <c r="AM9" s="46"/>
-      <c r="AN9" s="46"/>
-      <c r="AO9" s="46"/>
-      <c r="AP9" s="46"/>
-      <c r="AQ9" s="46"/>
-      <c r="AR9" s="46"/>
-      <c r="AS9" s="46"/>
-      <c r="AT9" s="46"/>
-      <c r="AU9" s="46"/>
-      <c r="AV9" s="46"/>
-      <c r="AW9" s="46"/>
-      <c r="AX9" s="46"/>
-      <c r="AY9" s="46"/>
-      <c r="AZ9" s="46"/>
-      <c r="BA9" s="46"/>
-      <c r="BB9" s="46"/>
-      <c r="BC9" s="46"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="42"/>
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="42"/>
+      <c r="AJ9" s="42"/>
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="42"/>
+      <c r="AM9" s="42"/>
+      <c r="AN9" s="42"/>
+      <c r="AO9" s="42"/>
+      <c r="AP9" s="42"/>
+      <c r="AQ9" s="42"/>
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="42"/>
+      <c r="AT9" s="42"/>
+      <c r="AU9" s="42"/>
+      <c r="AV9" s="42"/>
+      <c r="AW9" s="42"/>
+      <c r="AX9" s="42"/>
+      <c r="AY9" s="42"/>
+      <c r="AZ9" s="42"/>
+      <c r="BA9" s="42"/>
+      <c r="BB9" s="42"/>
+      <c r="BC9" s="42"/>
       <c r="BD9" s="3"/>
       <c r="BE9" s="3"/>
       <c r="CP9" s="3"/>
@@ -24197,70 +24297,70 @@
       <c r="HI9" s="3"/>
       <c r="HJ9" s="3"/>
     </row>
-    <row r="10" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+    <row r="10" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="41" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47" t="s">
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="39" t="s">
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="46"/>
-      <c r="AF10" s="46"/>
-      <c r="AG10" s="46"/>
-      <c r="AH10" s="46"/>
-      <c r="AI10" s="46"/>
-      <c r="AJ10" s="46"/>
-      <c r="AK10" s="46"/>
-      <c r="AL10" s="46"/>
-      <c r="AM10" s="46"/>
-      <c r="AN10" s="46"/>
-      <c r="AO10" s="46"/>
-      <c r="AP10" s="46"/>
-      <c r="AQ10" s="46"/>
-      <c r="AR10" s="46"/>
-      <c r="AS10" s="46"/>
-      <c r="AT10" s="46"/>
-      <c r="AU10" s="46"/>
-      <c r="AV10" s="46"/>
-      <c r="AW10" s="46"/>
-      <c r="AX10" s="46"/>
-      <c r="AY10" s="46"/>
-      <c r="AZ10" s="46"/>
-      <c r="BA10" s="46"/>
-      <c r="BB10" s="46"/>
-      <c r="BC10" s="46"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="43"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="42"/>
+      <c r="AJ10" s="42"/>
+      <c r="AK10" s="42"/>
+      <c r="AL10" s="42"/>
+      <c r="AM10" s="42"/>
+      <c r="AN10" s="42"/>
+      <c r="AO10" s="42"/>
+      <c r="AP10" s="42"/>
+      <c r="AQ10" s="42"/>
+      <c r="AR10" s="42"/>
+      <c r="AS10" s="42"/>
+      <c r="AT10" s="42"/>
+      <c r="AU10" s="42"/>
+      <c r="AV10" s="42"/>
+      <c r="AW10" s="42"/>
+      <c r="AX10" s="42"/>
+      <c r="AY10" s="42"/>
+      <c r="AZ10" s="42"/>
+      <c r="BA10" s="42"/>
+      <c r="BB10" s="42"/>
+      <c r="BC10" s="42"/>
       <c r="BD10" s="3"/>
       <c r="BE10" s="3"/>
       <c r="CP10" s="3"/>
@@ -24389,70 +24489,70 @@
       <c r="HI10" s="3"/>
       <c r="HJ10" s="3"/>
     </row>
-    <row r="11" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+    <row r="11" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="49" t="s">
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="39" t="s">
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="46"/>
-      <c r="AF11" s="46"/>
-      <c r="AG11" s="46"/>
-      <c r="AH11" s="46"/>
-      <c r="AI11" s="46"/>
-      <c r="AJ11" s="46"/>
-      <c r="AK11" s="46"/>
-      <c r="AL11" s="46"/>
-      <c r="AM11" s="46"/>
-      <c r="AN11" s="46"/>
-      <c r="AO11" s="46"/>
-      <c r="AP11" s="46"/>
-      <c r="AQ11" s="46"/>
-      <c r="AR11" s="46"/>
-      <c r="AS11" s="46"/>
-      <c r="AT11" s="46"/>
-      <c r="AU11" s="46"/>
-      <c r="AV11" s="46"/>
-      <c r="AW11" s="46"/>
-      <c r="AX11" s="46"/>
-      <c r="AY11" s="46"/>
-      <c r="AZ11" s="46"/>
-      <c r="BA11" s="46"/>
-      <c r="BB11" s="46"/>
-      <c r="BC11" s="46"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="42"/>
+      <c r="AJ11" s="42"/>
+      <c r="AK11" s="42"/>
+      <c r="AL11" s="42"/>
+      <c r="AM11" s="42"/>
+      <c r="AN11" s="42"/>
+      <c r="AO11" s="42"/>
+      <c r="AP11" s="42"/>
+      <c r="AQ11" s="42"/>
+      <c r="AR11" s="42"/>
+      <c r="AS11" s="42"/>
+      <c r="AT11" s="42"/>
+      <c r="AU11" s="42"/>
+      <c r="AV11" s="42"/>
+      <c r="AW11" s="42"/>
+      <c r="AX11" s="42"/>
+      <c r="AY11" s="42"/>
+      <c r="AZ11" s="42"/>
+      <c r="BA11" s="42"/>
+      <c r="BB11" s="42"/>
+      <c r="BC11" s="42"/>
       <c r="BD11" s="3"/>
       <c r="BE11" s="3"/>
       <c r="CP11" s="3"/>
@@ -24581,70 +24681,70 @@
       <c r="HI11" s="3"/>
       <c r="HJ11" s="3"/>
     </row>
-    <row r="12" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+    <row r="12" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="41" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47" t="s">
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="39" t="s">
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="46"/>
-      <c r="AF12" s="46"/>
-      <c r="AG12" s="46"/>
-      <c r="AH12" s="46"/>
-      <c r="AI12" s="46"/>
-      <c r="AJ12" s="46"/>
-      <c r="AK12" s="46"/>
-      <c r="AL12" s="46"/>
-      <c r="AM12" s="46"/>
-      <c r="AN12" s="46"/>
-      <c r="AO12" s="46"/>
-      <c r="AP12" s="46"/>
-      <c r="AQ12" s="46"/>
-      <c r="AR12" s="46"/>
-      <c r="AS12" s="46"/>
-      <c r="AT12" s="46"/>
-      <c r="AU12" s="46"/>
-      <c r="AV12" s="46"/>
-      <c r="AW12" s="46"/>
-      <c r="AX12" s="46"/>
-      <c r="AY12" s="46"/>
-      <c r="AZ12" s="46"/>
-      <c r="BA12" s="46"/>
-      <c r="BB12" s="46"/>
-      <c r="BC12" s="46"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="42"/>
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="42"/>
+      <c r="AL12" s="42"/>
+      <c r="AM12" s="42"/>
+      <c r="AN12" s="42"/>
+      <c r="AO12" s="42"/>
+      <c r="AP12" s="42"/>
+      <c r="AQ12" s="42"/>
+      <c r="AR12" s="42"/>
+      <c r="AS12" s="42"/>
+      <c r="AT12" s="42"/>
+      <c r="AU12" s="42"/>
+      <c r="AV12" s="42"/>
+      <c r="AW12" s="42"/>
+      <c r="AX12" s="42"/>
+      <c r="AY12" s="42"/>
+      <c r="AZ12" s="42"/>
+      <c r="BA12" s="42"/>
+      <c r="BB12" s="42"/>
+      <c r="BC12" s="42"/>
       <c r="BD12" s="3"/>
       <c r="BE12" s="3"/>
       <c r="CP12" s="3"/>
@@ -24773,70 +24873,70 @@
       <c r="HI12" s="3"/>
       <c r="HJ12" s="3"/>
     </row>
-    <row r="13" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+    <row r="13" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="41" t="s">
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47" t="s">
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="39" t="s">
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="46"/>
-      <c r="AF13" s="46"/>
-      <c r="AG13" s="46"/>
-      <c r="AH13" s="46"/>
-      <c r="AI13" s="46"/>
-      <c r="AJ13" s="46"/>
-      <c r="AK13" s="46"/>
-      <c r="AL13" s="46"/>
-      <c r="AM13" s="46"/>
-      <c r="AN13" s="46"/>
-      <c r="AO13" s="46"/>
-      <c r="AP13" s="46"/>
-      <c r="AQ13" s="46"/>
-      <c r="AR13" s="46"/>
-      <c r="AS13" s="46"/>
-      <c r="AT13" s="46"/>
-      <c r="AU13" s="46"/>
-      <c r="AV13" s="46"/>
-      <c r="AW13" s="46"/>
-      <c r="AX13" s="46"/>
-      <c r="AY13" s="46"/>
-      <c r="AZ13" s="46"/>
-      <c r="BA13" s="46"/>
-      <c r="BB13" s="46"/>
-      <c r="BC13" s="46"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="42"/>
+      <c r="AI13" s="42"/>
+      <c r="AJ13" s="42"/>
+      <c r="AK13" s="42"/>
+      <c r="AL13" s="42"/>
+      <c r="AM13" s="42"/>
+      <c r="AN13" s="42"/>
+      <c r="AO13" s="42"/>
+      <c r="AP13" s="42"/>
+      <c r="AQ13" s="42"/>
+      <c r="AR13" s="42"/>
+      <c r="AS13" s="42"/>
+      <c r="AT13" s="42"/>
+      <c r="AU13" s="42"/>
+      <c r="AV13" s="42"/>
+      <c r="AW13" s="42"/>
+      <c r="AX13" s="42"/>
+      <c r="AY13" s="42"/>
+      <c r="AZ13" s="42"/>
+      <c r="BA13" s="42"/>
+      <c r="BB13" s="42"/>
+      <c r="BC13" s="42"/>
       <c r="BD13" s="3"/>
       <c r="BE13" s="3"/>
       <c r="CP13" s="3"/>
@@ -24965,72 +25065,72 @@
       <c r="HI13" s="3"/>
       <c r="HJ13" s="3"/>
     </row>
-    <row r="14" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+    <row r="14" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="41" t="s">
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47" t="s">
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="39" t="s">
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="48" t="s">
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="AF14" s="46"/>
-      <c r="AG14" s="46"/>
-      <c r="AH14" s="46"/>
-      <c r="AI14" s="46"/>
-      <c r="AJ14" s="46"/>
-      <c r="AK14" s="46"/>
-      <c r="AL14" s="46"/>
-      <c r="AM14" s="46"/>
-      <c r="AN14" s="46"/>
-      <c r="AO14" s="46"/>
-      <c r="AP14" s="46"/>
-      <c r="AQ14" s="46"/>
-      <c r="AR14" s="46"/>
-      <c r="AS14" s="46"/>
-      <c r="AT14" s="46"/>
-      <c r="AU14" s="46"/>
-      <c r="AV14" s="46"/>
-      <c r="AW14" s="46"/>
-      <c r="AX14" s="46"/>
-      <c r="AY14" s="46"/>
-      <c r="AZ14" s="46"/>
-      <c r="BA14" s="46"/>
-      <c r="BB14" s="46"/>
-      <c r="BC14" s="46"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="42"/>
+      <c r="AH14" s="42"/>
+      <c r="AI14" s="42"/>
+      <c r="AJ14" s="42"/>
+      <c r="AK14" s="42"/>
+      <c r="AL14" s="42"/>
+      <c r="AM14" s="42"/>
+      <c r="AN14" s="42"/>
+      <c r="AO14" s="42"/>
+      <c r="AP14" s="42"/>
+      <c r="AQ14" s="42"/>
+      <c r="AR14" s="42"/>
+      <c r="AS14" s="42"/>
+      <c r="AT14" s="42"/>
+      <c r="AU14" s="42"/>
+      <c r="AV14" s="42"/>
+      <c r="AW14" s="42"/>
+      <c r="AX14" s="42"/>
+      <c r="AY14" s="42"/>
+      <c r="AZ14" s="42"/>
+      <c r="BA14" s="42"/>
+      <c r="BB14" s="42"/>
+      <c r="BC14" s="42"/>
       <c r="BD14" s="3"/>
       <c r="BE14" s="3"/>
       <c r="CP14" s="3"/>
@@ -25159,72 +25259,72 @@
       <c r="HI14" s="3"/>
       <c r="HJ14" s="3"/>
     </row>
-    <row r="15" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+    <row r="15" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="42" t="s">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="47" t="s">
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="39" t="s">
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="40" t="s">
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="43"/>
+      <c r="AD15" s="43"/>
+      <c r="AE15" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="AF15" s="40"/>
-      <c r="AG15" s="40"/>
-      <c r="AH15" s="40"/>
-      <c r="AI15" s="40"/>
-      <c r="AJ15" s="40"/>
-      <c r="AK15" s="40"/>
-      <c r="AL15" s="40"/>
-      <c r="AM15" s="40"/>
-      <c r="AN15" s="40"/>
-      <c r="AO15" s="40"/>
-      <c r="AP15" s="40"/>
-      <c r="AQ15" s="40"/>
-      <c r="AR15" s="40"/>
-      <c r="AS15" s="40"/>
-      <c r="AT15" s="40"/>
-      <c r="AU15" s="40"/>
-      <c r="AV15" s="40"/>
-      <c r="AW15" s="40"/>
-      <c r="AX15" s="40"/>
-      <c r="AY15" s="40"/>
-      <c r="AZ15" s="40"/>
-      <c r="BA15" s="40"/>
-      <c r="BB15" s="40"/>
-      <c r="BC15" s="40"/>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="51"/>
+      <c r="AI15" s="51"/>
+      <c r="AJ15" s="51"/>
+      <c r="AK15" s="51"/>
+      <c r="AL15" s="51"/>
+      <c r="AM15" s="51"/>
+      <c r="AN15" s="51"/>
+      <c r="AO15" s="51"/>
+      <c r="AP15" s="51"/>
+      <c r="AQ15" s="51"/>
+      <c r="AR15" s="51"/>
+      <c r="AS15" s="51"/>
+      <c r="AT15" s="51"/>
+      <c r="AU15" s="51"/>
+      <c r="AV15" s="51"/>
+      <c r="AW15" s="51"/>
+      <c r="AX15" s="51"/>
+      <c r="AY15" s="51"/>
+      <c r="AZ15" s="51"/>
+      <c r="BA15" s="51"/>
+      <c r="BB15" s="51"/>
+      <c r="BC15" s="51"/>
       <c r="BD15" s="3"/>
       <c r="BE15" s="3"/>
       <c r="CP15" s="3"/>
@@ -25353,72 +25453,72 @@
       <c r="HI15" s="3"/>
       <c r="HJ15" s="3"/>
     </row>
-    <row r="16" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+    <row r="16" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="44" t="s">
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="45" t="s">
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="44" t="s">
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="45" t="s">
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AC16" s="45"/>
-      <c r="AD16" s="45"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="45"/>
-      <c r="AG16" s="45"/>
-      <c r="AH16" s="45"/>
-      <c r="AI16" s="45"/>
-      <c r="AJ16" s="45"/>
-      <c r="AK16" s="44" t="s">
+      <c r="AC16" s="55"/>
+      <c r="AD16" s="55"/>
+      <c r="AE16" s="55"/>
+      <c r="AF16" s="55"/>
+      <c r="AG16" s="55"/>
+      <c r="AH16" s="55"/>
+      <c r="AI16" s="55"/>
+      <c r="AJ16" s="55"/>
+      <c r="AK16" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="AL16" s="44"/>
-      <c r="AM16" s="44"/>
-      <c r="AN16" s="45" t="s">
+      <c r="AL16" s="54"/>
+      <c r="AM16" s="54"/>
+      <c r="AN16" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="AO16" s="45"/>
-      <c r="AP16" s="45"/>
-      <c r="AQ16" s="45"/>
-      <c r="AR16" s="45"/>
-      <c r="AS16" s="45"/>
-      <c r="AT16" s="45"/>
-      <c r="AU16" s="44" t="s">
+      <c r="AO16" s="55"/>
+      <c r="AP16" s="55"/>
+      <c r="AQ16" s="55"/>
+      <c r="AR16" s="55"/>
+      <c r="AS16" s="55"/>
+      <c r="AT16" s="55"/>
+      <c r="AU16" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AV16" s="44"/>
-      <c r="AW16" s="44"/>
+      <c r="AV16" s="54"/>
+      <c r="AW16" s="54"/>
       <c r="AX16" s="31" t="s">
         <v>62</v>
       </c>
@@ -25570,70 +25670,70 @@
       <c r="GU16" s="3"/>
       <c r="GV16" s="3"/>
     </row>
-    <row r="17" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="45"/>
-      <c r="AC17" s="45"/>
-      <c r="AD17" s="45"/>
-      <c r="AE17" s="45"/>
-      <c r="AF17" s="45"/>
-      <c r="AG17" s="45"/>
-      <c r="AH17" s="45"/>
-      <c r="AI17" s="45"/>
-      <c r="AJ17" s="45"/>
-      <c r="AK17" s="44" t="s">
+    <row r="17" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="55"/>
+      <c r="AD17" s="55"/>
+      <c r="AE17" s="55"/>
+      <c r="AF17" s="55"/>
+      <c r="AG17" s="55"/>
+      <c r="AH17" s="55"/>
+      <c r="AI17" s="55"/>
+      <c r="AJ17" s="55"/>
+      <c r="AK17" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AL17" s="44"/>
-      <c r="AM17" s="44"/>
-      <c r="AN17" s="45"/>
-      <c r="AO17" s="45"/>
-      <c r="AP17" s="45"/>
-      <c r="AQ17" s="45"/>
-      <c r="AR17" s="45"/>
-      <c r="AS17" s="45"/>
-      <c r="AT17" s="45"/>
-      <c r="AU17" s="44" t="s">
+      <c r="AL17" s="54"/>
+      <c r="AM17" s="54"/>
+      <c r="AN17" s="55"/>
+      <c r="AO17" s="55"/>
+      <c r="AP17" s="55"/>
+      <c r="AQ17" s="55"/>
+      <c r="AR17" s="55"/>
+      <c r="AS17" s="55"/>
+      <c r="AT17" s="55"/>
+      <c r="AU17" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AV17" s="44"/>
-      <c r="AW17" s="44"/>
-      <c r="AX17" s="64"/>
-      <c r="AY17" s="64"/>
-      <c r="AZ17" s="64"/>
-      <c r="BA17" s="64"/>
-      <c r="BB17" s="64"/>
-      <c r="BC17" s="64"/>
+      <c r="AV17" s="54"/>
+      <c r="AW17" s="54"/>
+      <c r="AX17" s="65"/>
+      <c r="AY17" s="65"/>
+      <c r="AZ17" s="65"/>
+      <c r="BA17" s="65"/>
+      <c r="BB17" s="65"/>
+      <c r="BC17" s="65"/>
       <c r="BD17" s="7"/>
       <c r="BE17" s="7"/>
     </row>
-    <row r="18" spans="1:57" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -25692,133 +25792,133 @@
       <c r="BD18" s="7"/>
       <c r="BE18" s="7"/>
     </row>
-    <row r="19" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
+    <row r="19" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="57" t="s">
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="60" t="s">
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="60"/>
-      <c r="AA19" s="60"/>
-      <c r="AB19" s="60"/>
-      <c r="AC19" s="57" t="s">
-        <v>44</v>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="61"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="58" t="s">
+        <v>75</v>
       </c>
-      <c r="AD19" s="57"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="57"/>
-      <c r="AG19" s="57"/>
-      <c r="AH19" s="57"/>
-      <c r="AI19" s="57"/>
-      <c r="AJ19" s="57"/>
-      <c r="AK19" s="57"/>
-      <c r="AL19" s="57"/>
-      <c r="AM19" s="57"/>
-      <c r="AN19" s="57"/>
-      <c r="AO19" s="57"/>
-      <c r="AP19" s="57"/>
-      <c r="AQ19" s="57"/>
-      <c r="AR19" s="57"/>
-      <c r="AS19" s="57"/>
-      <c r="AT19" s="57"/>
-      <c r="AU19" s="57"/>
-      <c r="AV19" s="57"/>
-      <c r="AW19" s="57"/>
-      <c r="AX19" s="57"/>
-      <c r="AY19" s="57"/>
-      <c r="AZ19" s="57"/>
-      <c r="BA19" s="57"/>
-      <c r="BB19" s="57"/>
-      <c r="BC19" s="57"/>
+      <c r="AD19" s="58"/>
+      <c r="AE19" s="58"/>
+      <c r="AF19" s="58"/>
+      <c r="AG19" s="58"/>
+      <c r="AH19" s="58"/>
+      <c r="AI19" s="58"/>
+      <c r="AJ19" s="58"/>
+      <c r="AK19" s="58"/>
+      <c r="AL19" s="58"/>
+      <c r="AM19" s="58"/>
+      <c r="AN19" s="58"/>
+      <c r="AO19" s="58"/>
+      <c r="AP19" s="58"/>
+      <c r="AQ19" s="58"/>
+      <c r="AR19" s="58"/>
+      <c r="AS19" s="58"/>
+      <c r="AT19" s="58"/>
+      <c r="AU19" s="58"/>
+      <c r="AV19" s="58"/>
+      <c r="AW19" s="58"/>
+      <c r="AX19" s="58"/>
+      <c r="AY19" s="58"/>
+      <c r="AZ19" s="58"/>
+      <c r="BA19" s="58"/>
+      <c r="BB19" s="58"/>
+      <c r="BC19" s="58"/>
       <c r="BD19" s="7"/>
       <c r="BE19" s="7"/>
     </row>
-    <row r="20" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="61"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="61"/>
-      <c r="AB20" s="61"/>
-      <c r="AC20" s="62"/>
-      <c r="AD20" s="62"/>
-      <c r="AE20" s="62"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="62"/>
-      <c r="AI20" s="62"/>
-      <c r="AJ20" s="62"/>
-      <c r="AK20" s="62"/>
-      <c r="AL20" s="62"/>
-      <c r="AM20" s="62"/>
-      <c r="AN20" s="62"/>
-      <c r="AO20" s="62"/>
-      <c r="AP20" s="62"/>
-      <c r="AQ20" s="62"/>
-      <c r="AR20" s="62"/>
-      <c r="AS20" s="62"/>
-      <c r="AT20" s="62"/>
-      <c r="AU20" s="62"/>
-      <c r="AV20" s="62"/>
-      <c r="AW20" s="62"/>
-      <c r="AX20" s="62"/>
-      <c r="AY20" s="62"/>
-      <c r="AZ20" s="62"/>
-      <c r="BA20" s="62"/>
-      <c r="BB20" s="62"/>
-      <c r="BC20" s="62"/>
+    <row r="20" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="64"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="62"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="64"/>
+      <c r="AD20" s="64"/>
+      <c r="AE20" s="64"/>
+      <c r="AF20" s="64"/>
+      <c r="AG20" s="64"/>
+      <c r="AH20" s="64"/>
+      <c r="AI20" s="64"/>
+      <c r="AJ20" s="64"/>
+      <c r="AK20" s="64"/>
+      <c r="AL20" s="64"/>
+      <c r="AM20" s="64"/>
+      <c r="AN20" s="64"/>
+      <c r="AO20" s="64"/>
+      <c r="AP20" s="64"/>
+      <c r="AQ20" s="64"/>
+      <c r="AR20" s="64"/>
+      <c r="AS20" s="64"/>
+      <c r="AT20" s="64"/>
+      <c r="AU20" s="64"/>
+      <c r="AV20" s="64"/>
+      <c r="AW20" s="64"/>
+      <c r="AX20" s="64"/>
+      <c r="AY20" s="64"/>
+      <c r="AZ20" s="64"/>
+      <c r="BA20" s="64"/>
+      <c r="BB20" s="64"/>
+      <c r="BC20" s="64"/>
       <c r="BD20" s="7"/>
       <c r="BE20" s="7"/>
     </row>
-    <row r="21" spans="1:57" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:57" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -25877,7 +25977,7 @@
       <c r="BD21" s="7"/>
       <c r="BE21" s="7"/>
     </row>
-    <row r="22" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
         <v>24</v>
       </c>
@@ -25944,7 +26044,7 @@
       <c r="BB22" s="32"/>
       <c r="BC22" s="32"/>
     </row>
-    <row r="23" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -26001,979 +26101,1496 @@
       <c r="BB23" s="32"/>
       <c r="BC23" s="32"/>
     </row>
-    <row r="24" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
+    <row r="24" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="41"/>
+      <c r="AE24" s="39"/>
+      <c r="AF24" s="40"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="40"/>
+      <c r="AI24" s="40"/>
+      <c r="AJ24" s="40"/>
+      <c r="AK24" s="40"/>
+      <c r="AL24" s="40"/>
+      <c r="AM24" s="40"/>
+      <c r="AN24" s="40"/>
+      <c r="AO24" s="40"/>
+      <c r="AP24" s="40"/>
+      <c r="AQ24" s="40"/>
+      <c r="AR24" s="40"/>
+      <c r="AS24" s="40"/>
+      <c r="AT24" s="40"/>
+      <c r="AU24" s="40"/>
+      <c r="AV24" s="40"/>
+      <c r="AW24" s="40"/>
+      <c r="AX24" s="40"/>
+      <c r="AY24" s="40"/>
+      <c r="AZ24" s="40"/>
+      <c r="BA24" s="40"/>
+      <c r="BB24" s="40"/>
+      <c r="BC24" s="41"/>
+    </row>
+    <row r="25" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="41"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="40"/>
+      <c r="AG25" s="40"/>
+      <c r="AH25" s="40"/>
+      <c r="AI25" s="40"/>
+      <c r="AJ25" s="40"/>
+      <c r="AK25" s="40"/>
+      <c r="AL25" s="40"/>
+      <c r="AM25" s="40"/>
+      <c r="AN25" s="40"/>
+      <c r="AO25" s="40"/>
+      <c r="AP25" s="40"/>
+      <c r="AQ25" s="40"/>
+      <c r="AR25" s="40"/>
+      <c r="AS25" s="40"/>
+      <c r="AT25" s="40"/>
+      <c r="AU25" s="40"/>
+      <c r="AV25" s="40"/>
+      <c r="AW25" s="40"/>
+      <c r="AX25" s="40"/>
+      <c r="AY25" s="40"/>
+      <c r="AZ25" s="40"/>
+      <c r="BA25" s="40"/>
+      <c r="BB25" s="40"/>
+      <c r="BC25" s="41"/>
+    </row>
+    <row r="26" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="41"/>
+      <c r="AE26" s="39"/>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="40"/>
+      <c r="AI26" s="40"/>
+      <c r="AJ26" s="40"/>
+      <c r="AK26" s="40"/>
+      <c r="AL26" s="40"/>
+      <c r="AM26" s="40"/>
+      <c r="AN26" s="40"/>
+      <c r="AO26" s="40"/>
+      <c r="AP26" s="40"/>
+      <c r="AQ26" s="40"/>
+      <c r="AR26" s="40"/>
+      <c r="AS26" s="40"/>
+      <c r="AT26" s="40"/>
+      <c r="AU26" s="40"/>
+      <c r="AV26" s="40"/>
+      <c r="AW26" s="40"/>
+      <c r="AX26" s="40"/>
+      <c r="AY26" s="40"/>
+      <c r="AZ26" s="40"/>
+      <c r="BA26" s="40"/>
+      <c r="BB26" s="40"/>
+      <c r="BC26" s="41"/>
+    </row>
+    <row r="27" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="41"/>
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="40"/>
+      <c r="AG27" s="40"/>
+      <c r="AH27" s="40"/>
+      <c r="AI27" s="40"/>
+      <c r="AJ27" s="40"/>
+      <c r="AK27" s="40"/>
+      <c r="AL27" s="40"/>
+      <c r="AM27" s="40"/>
+      <c r="AN27" s="40"/>
+      <c r="AO27" s="40"/>
+      <c r="AP27" s="40"/>
+      <c r="AQ27" s="40"/>
+      <c r="AR27" s="40"/>
+      <c r="AS27" s="40"/>
+      <c r="AT27" s="40"/>
+      <c r="AU27" s="40"/>
+      <c r="AV27" s="40"/>
+      <c r="AW27" s="40"/>
+      <c r="AX27" s="40"/>
+      <c r="AY27" s="40"/>
+      <c r="AZ27" s="40"/>
+      <c r="BA27" s="40"/>
+      <c r="BB27" s="40"/>
+      <c r="BC27" s="41"/>
+    </row>
+    <row r="28" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="53" t="s">
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="41" t="s">
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="42" t="s">
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="42"/>
-      <c r="AD24" s="42"/>
-      <c r="AE24" s="52" t="s">
+      <c r="X28" s="52"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="52"/>
+      <c r="AD28" s="52"/>
+      <c r="AE28" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="52"/>
-      <c r="AH24" s="52"/>
-      <c r="AI24" s="52"/>
-      <c r="AJ24" s="52"/>
-      <c r="AK24" s="52"/>
-      <c r="AL24" s="52"/>
-      <c r="AM24" s="52"/>
-      <c r="AN24" s="52"/>
-      <c r="AO24" s="52"/>
-      <c r="AP24" s="52"/>
-      <c r="AQ24" s="52"/>
-      <c r="AR24" s="52"/>
-      <c r="AS24" s="52"/>
-      <c r="AT24" s="52"/>
-      <c r="AU24" s="52"/>
-      <c r="AV24" s="52"/>
-      <c r="AW24" s="52"/>
-      <c r="AX24" s="52"/>
-      <c r="AY24" s="52"/>
-      <c r="AZ24" s="52"/>
-      <c r="BA24" s="52"/>
-      <c r="BB24" s="52"/>
-      <c r="BC24" s="52"/>
+      <c r="AF28" s="47"/>
+      <c r="AG28" s="47"/>
+      <c r="AH28" s="47"/>
+      <c r="AI28" s="47"/>
+      <c r="AJ28" s="47"/>
+      <c r="AK28" s="47"/>
+      <c r="AL28" s="47"/>
+      <c r="AM28" s="47"/>
+      <c r="AN28" s="47"/>
+      <c r="AO28" s="47"/>
+      <c r="AP28" s="47"/>
+      <c r="AQ28" s="47"/>
+      <c r="AR28" s="47"/>
+      <c r="AS28" s="47"/>
+      <c r="AT28" s="47"/>
+      <c r="AU28" s="47"/>
+      <c r="AV28" s="47"/>
+      <c r="AW28" s="47"/>
+      <c r="AX28" s="47"/>
+      <c r="AY28" s="47"/>
+      <c r="AZ28" s="47"/>
+      <c r="BA28" s="47"/>
+      <c r="BB28" s="47"/>
+      <c r="BC28" s="47"/>
     </row>
-    <row r="25" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
+    <row r="29" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="53" t="s">
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="41" t="s">
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="42" t="s">
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="42"/>
-      <c r="AE25" s="52" t="s">
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="52"/>
+      <c r="AA29" s="52"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="52"/>
+      <c r="AD29" s="52"/>
+      <c r="AE29" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="52"/>
-      <c r="AH25" s="52"/>
-      <c r="AI25" s="52"/>
-      <c r="AJ25" s="52"/>
-      <c r="AK25" s="52"/>
-      <c r="AL25" s="52"/>
-      <c r="AM25" s="52"/>
-      <c r="AN25" s="52"/>
-      <c r="AO25" s="52"/>
-      <c r="AP25" s="52"/>
-      <c r="AQ25" s="52"/>
-      <c r="AR25" s="52"/>
-      <c r="AS25" s="52"/>
-      <c r="AT25" s="52"/>
-      <c r="AU25" s="52"/>
-      <c r="AV25" s="52"/>
-      <c r="AW25" s="52"/>
-      <c r="AX25" s="52"/>
-      <c r="AY25" s="52"/>
-      <c r="AZ25" s="52"/>
-      <c r="BA25" s="52"/>
-      <c r="BB25" s="52"/>
-      <c r="BC25" s="52"/>
+      <c r="AF29" s="47"/>
+      <c r="AG29" s="47"/>
+      <c r="AH29" s="47"/>
+      <c r="AI29" s="47"/>
+      <c r="AJ29" s="47"/>
+      <c r="AK29" s="47"/>
+      <c r="AL29" s="47"/>
+      <c r="AM29" s="47"/>
+      <c r="AN29" s="47"/>
+      <c r="AO29" s="47"/>
+      <c r="AP29" s="47"/>
+      <c r="AQ29" s="47"/>
+      <c r="AR29" s="47"/>
+      <c r="AS29" s="47"/>
+      <c r="AT29" s="47"/>
+      <c r="AU29" s="47"/>
+      <c r="AV29" s="47"/>
+      <c r="AW29" s="47"/>
+      <c r="AX29" s="47"/>
+      <c r="AY29" s="47"/>
+      <c r="AZ29" s="47"/>
+      <c r="BA29" s="47"/>
+      <c r="BB29" s="47"/>
+      <c r="BC29" s="47"/>
     </row>
-    <row r="26" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="42"/>
-      <c r="AD26" s="42"/>
-      <c r="AE26" s="52"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="52"/>
-      <c r="AH26" s="52"/>
-      <c r="AI26" s="52"/>
-      <c r="AJ26" s="52"/>
-      <c r="AK26" s="52"/>
-      <c r="AL26" s="52"/>
-      <c r="AM26" s="52"/>
-      <c r="AN26" s="52"/>
-      <c r="AO26" s="52"/>
-      <c r="AP26" s="52"/>
-      <c r="AQ26" s="52"/>
-      <c r="AR26" s="52"/>
-      <c r="AS26" s="52"/>
-      <c r="AT26" s="52"/>
-      <c r="AU26" s="52"/>
-      <c r="AV26" s="52"/>
-      <c r="AW26" s="52"/>
-      <c r="AX26" s="52"/>
-      <c r="AY26" s="52"/>
-      <c r="AZ26" s="52"/>
-      <c r="BA26" s="52"/>
-      <c r="BB26" s="52"/>
-      <c r="BC26" s="52"/>
+    <row r="30" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="67"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="52"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="52"/>
+      <c r="AE30" s="47"/>
+      <c r="AF30" s="47"/>
+      <c r="AG30" s="47"/>
+      <c r="AH30" s="47"/>
+      <c r="AI30" s="47"/>
+      <c r="AJ30" s="47"/>
+      <c r="AK30" s="47"/>
+      <c r="AL30" s="47"/>
+      <c r="AM30" s="47"/>
+      <c r="AN30" s="47"/>
+      <c r="AO30" s="47"/>
+      <c r="AP30" s="47"/>
+      <c r="AQ30" s="47"/>
+      <c r="AR30" s="47"/>
+      <c r="AS30" s="47"/>
+      <c r="AT30" s="47"/>
+      <c r="AU30" s="47"/>
+      <c r="AV30" s="47"/>
+      <c r="AW30" s="47"/>
+      <c r="AX30" s="47"/>
+      <c r="AY30" s="47"/>
+      <c r="AZ30" s="47"/>
+      <c r="BA30" s="47"/>
+      <c r="BB30" s="47"/>
+      <c r="BC30" s="47"/>
     </row>
-    <row r="28" spans="1:57" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+    <row r="32" spans="1:57" ht="15" x14ac:dyDescent="0.3">
+      <c r="A32" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="44" t="s">
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="45" t="s">
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="44" t="s">
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="Y28" s="44"/>
-      <c r="Z28" s="44"/>
-      <c r="AA28" s="44"/>
-      <c r="AB28" s="45" t="s">
+      <c r="Y32" s="54"/>
+      <c r="Z32" s="54"/>
+      <c r="AA32" s="54"/>
+      <c r="AB32" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AC28" s="45"/>
-      <c r="AD28" s="45"/>
-      <c r="AE28" s="45"/>
-      <c r="AF28" s="45"/>
-      <c r="AG28" s="45"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="45"/>
-      <c r="AJ28" s="45"/>
-      <c r="AK28" s="44" t="s">
+      <c r="AC32" s="55"/>
+      <c r="AD32" s="55"/>
+      <c r="AE32" s="55"/>
+      <c r="AF32" s="55"/>
+      <c r="AG32" s="55"/>
+      <c r="AH32" s="55"/>
+      <c r="AI32" s="55"/>
+      <c r="AJ32" s="55"/>
+      <c r="AK32" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="AL28" s="44"/>
-      <c r="AM28" s="44"/>
-      <c r="AN28" s="45" t="s">
+      <c r="AL32" s="54"/>
+      <c r="AM32" s="54"/>
+      <c r="AN32" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="AO28" s="45"/>
-      <c r="AP28" s="45"/>
-      <c r="AQ28" s="45"/>
-      <c r="AR28" s="45"/>
-      <c r="AS28" s="45"/>
-      <c r="AT28" s="45"/>
-      <c r="AU28" s="44" t="s">
+      <c r="AO32" s="55"/>
+      <c r="AP32" s="55"/>
+      <c r="AQ32" s="55"/>
+      <c r="AR32" s="55"/>
+      <c r="AS32" s="55"/>
+      <c r="AT32" s="55"/>
+      <c r="AU32" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AV28" s="44"/>
-      <c r="AW28" s="44"/>
-      <c r="AX28" s="31" t="s">
+      <c r="AV32" s="54"/>
+      <c r="AW32" s="54"/>
+      <c r="AX32" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="AY28" s="31"/>
-      <c r="AZ28" s="31"/>
-      <c r="BA28" s="31"/>
-      <c r="BB28" s="31"/>
-      <c r="BC28" s="31"/>
+      <c r="AY32" s="31"/>
+      <c r="AZ32" s="31"/>
+      <c r="BA32" s="31"/>
+      <c r="BB32" s="31"/>
+      <c r="BC32" s="31"/>
     </row>
-    <row r="29" spans="1:57" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="44"/>
-      <c r="AA29" s="44"/>
-      <c r="AB29" s="45"/>
-      <c r="AC29" s="45"/>
-      <c r="AD29" s="45"/>
-      <c r="AE29" s="45"/>
-      <c r="AF29" s="45"/>
-      <c r="AG29" s="45"/>
-      <c r="AH29" s="45"/>
-      <c r="AI29" s="45"/>
-      <c r="AJ29" s="45"/>
-      <c r="AK29" s="44" t="s">
+    <row r="33" spans="1:55" ht="15" x14ac:dyDescent="0.3">
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="55"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="54"/>
+      <c r="Z33" s="54"/>
+      <c r="AA33" s="54"/>
+      <c r="AB33" s="55"/>
+      <c r="AC33" s="55"/>
+      <c r="AD33" s="55"/>
+      <c r="AE33" s="55"/>
+      <c r="AF33" s="55"/>
+      <c r="AG33" s="55"/>
+      <c r="AH33" s="55"/>
+      <c r="AI33" s="55"/>
+      <c r="AJ33" s="55"/>
+      <c r="AK33" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AL29" s="44"/>
-      <c r="AM29" s="44"/>
-      <c r="AN29" s="45"/>
-      <c r="AO29" s="45"/>
-      <c r="AP29" s="45"/>
-      <c r="AQ29" s="45"/>
-      <c r="AR29" s="45"/>
-      <c r="AS29" s="45"/>
-      <c r="AT29" s="45"/>
-      <c r="AU29" s="44" t="s">
+      <c r="AL33" s="54"/>
+      <c r="AM33" s="54"/>
+      <c r="AN33" s="55"/>
+      <c r="AO33" s="55"/>
+      <c r="AP33" s="55"/>
+      <c r="AQ33" s="55"/>
+      <c r="AR33" s="55"/>
+      <c r="AS33" s="55"/>
+      <c r="AT33" s="55"/>
+      <c r="AU33" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AV29" s="44"/>
-      <c r="AW29" s="44"/>
-      <c r="AX29" s="64"/>
-      <c r="AY29" s="64"/>
-      <c r="AZ29" s="64"/>
-      <c r="BA29" s="64"/>
-      <c r="BB29" s="64"/>
-      <c r="BC29" s="64"/>
+      <c r="AV33" s="54"/>
+      <c r="AW33" s="54"/>
+      <c r="AX33" s="65"/>
+      <c r="AY33" s="65"/>
+      <c r="AZ33" s="65"/>
+      <c r="BA33" s="65"/>
+      <c r="BB33" s="65"/>
+      <c r="BC33" s="65"/>
     </row>
-    <row r="30" spans="1:57" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="5"/>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="5"/>
-      <c r="AN30" s="5"/>
-      <c r="AO30" s="5"/>
-      <c r="AP30" s="5"/>
-      <c r="AQ30" s="5"/>
-      <c r="AR30" s="5"/>
-      <c r="AS30" s="5"/>
-      <c r="AT30" s="5"/>
-      <c r="AU30" s="5"/>
-      <c r="AV30" s="5"/>
-      <c r="AW30" s="5"/>
-      <c r="AX30" s="5"/>
-      <c r="AY30" s="5"/>
-      <c r="AZ30" s="5"/>
-      <c r="BA30" s="5"/>
-      <c r="BB30" s="5"/>
-      <c r="BC30" s="5"/>
+    <row r="34" spans="1:55" ht="15" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="5"/>
+      <c r="AX34" s="5"/>
+      <c r="AY34" s="5"/>
+      <c r="AZ34" s="5"/>
+      <c r="BA34" s="5"/>
+      <c r="BB34" s="5"/>
+      <c r="BC34" s="5"/>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A31" s="55" t="s">
+    <row r="35" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A35" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="57" t="s">
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="57"/>
-      <c r="X31" s="60" t="s">
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="Y31" s="60"/>
-      <c r="Z31" s="60"/>
-      <c r="AA31" s="60"/>
-      <c r="AB31" s="60"/>
-      <c r="AC31" s="57" t="s">
-        <v>46</v>
+      <c r="Y35" s="61"/>
+      <c r="Z35" s="61"/>
+      <c r="AA35" s="61"/>
+      <c r="AB35" s="61"/>
+      <c r="AC35" s="58" t="s">
+        <v>76</v>
       </c>
-      <c r="AD31" s="57"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="57"/>
-      <c r="AG31" s="57"/>
-      <c r="AH31" s="57"/>
-      <c r="AI31" s="57"/>
-      <c r="AJ31" s="57"/>
-      <c r="AK31" s="57"/>
-      <c r="AL31" s="57"/>
-      <c r="AM31" s="57"/>
-      <c r="AN31" s="57"/>
-      <c r="AO31" s="57"/>
-      <c r="AP31" s="57"/>
-      <c r="AQ31" s="57"/>
-      <c r="AR31" s="57"/>
-      <c r="AS31" s="57"/>
-      <c r="AT31" s="57"/>
-      <c r="AU31" s="57"/>
-      <c r="AV31" s="57"/>
-      <c r="AW31" s="57"/>
-      <c r="AX31" s="57"/>
-      <c r="AY31" s="57"/>
-      <c r="AZ31" s="57"/>
-      <c r="BA31" s="57"/>
-      <c r="BB31" s="57"/>
-      <c r="BC31" s="57"/>
+      <c r="AD35" s="58"/>
+      <c r="AE35" s="58"/>
+      <c r="AF35" s="58"/>
+      <c r="AG35" s="58"/>
+      <c r="AH35" s="58"/>
+      <c r="AI35" s="58"/>
+      <c r="AJ35" s="58"/>
+      <c r="AK35" s="58"/>
+      <c r="AL35" s="58"/>
+      <c r="AM35" s="58"/>
+      <c r="AN35" s="58"/>
+      <c r="AO35" s="58"/>
+      <c r="AP35" s="58"/>
+      <c r="AQ35" s="58"/>
+      <c r="AR35" s="58"/>
+      <c r="AS35" s="58"/>
+      <c r="AT35" s="58"/>
+      <c r="AU35" s="58"/>
+      <c r="AV35" s="58"/>
+      <c r="AW35" s="58"/>
+      <c r="AX35" s="58"/>
+      <c r="AY35" s="58"/>
+      <c r="AZ35" s="58"/>
+      <c r="BA35" s="58"/>
+      <c r="BB35" s="58"/>
+      <c r="BC35" s="58"/>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="62"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="62"/>
-      <c r="V32" s="62"/>
-      <c r="W32" s="62"/>
-      <c r="X32" s="61"/>
-      <c r="Y32" s="61"/>
-      <c r="Z32" s="61"/>
-      <c r="AA32" s="61"/>
-      <c r="AB32" s="61"/>
-      <c r="AC32" s="62"/>
-      <c r="AD32" s="62"/>
-      <c r="AE32" s="62"/>
-      <c r="AF32" s="62"/>
-      <c r="AG32" s="62"/>
-      <c r="AH32" s="62"/>
-      <c r="AI32" s="62"/>
-      <c r="AJ32" s="62"/>
-      <c r="AK32" s="62"/>
-      <c r="AL32" s="62"/>
-      <c r="AM32" s="62"/>
-      <c r="AN32" s="62"/>
-      <c r="AO32" s="62"/>
-      <c r="AP32" s="62"/>
-      <c r="AQ32" s="62"/>
-      <c r="AR32" s="62"/>
-      <c r="AS32" s="62"/>
-      <c r="AT32" s="62"/>
-      <c r="AU32" s="62"/>
-      <c r="AV32" s="62"/>
-      <c r="AW32" s="62"/>
-      <c r="AX32" s="62"/>
-      <c r="AY32" s="62"/>
-      <c r="AZ32" s="62"/>
-      <c r="BA32" s="62"/>
-      <c r="BB32" s="62"/>
-      <c r="BC32" s="62"/>
+    <row r="36" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
+      <c r="V36" s="64"/>
+      <c r="W36" s="64"/>
+      <c r="X36" s="62"/>
+      <c r="Y36" s="62"/>
+      <c r="Z36" s="62"/>
+      <c r="AA36" s="62"/>
+      <c r="AB36" s="62"/>
+      <c r="AC36" s="64"/>
+      <c r="AD36" s="64"/>
+      <c r="AE36" s="64"/>
+      <c r="AF36" s="64"/>
+      <c r="AG36" s="64"/>
+      <c r="AH36" s="64"/>
+      <c r="AI36" s="64"/>
+      <c r="AJ36" s="64"/>
+      <c r="AK36" s="64"/>
+      <c r="AL36" s="64"/>
+      <c r="AM36" s="64"/>
+      <c r="AN36" s="64"/>
+      <c r="AO36" s="64"/>
+      <c r="AP36" s="64"/>
+      <c r="AQ36" s="64"/>
+      <c r="AR36" s="64"/>
+      <c r="AS36" s="64"/>
+      <c r="AT36" s="64"/>
+      <c r="AU36" s="64"/>
+      <c r="AV36" s="64"/>
+      <c r="AW36" s="64"/>
+      <c r="AX36" s="64"/>
+      <c r="AY36" s="64"/>
+      <c r="AZ36" s="64"/>
+      <c r="BA36" s="64"/>
+      <c r="BB36" s="64"/>
+      <c r="BC36" s="64"/>
     </row>
-    <row r="33" spans="1:55" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="8"/>
-      <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="8"/>
-      <c r="AG33" s="8"/>
-      <c r="AH33" s="8"/>
-      <c r="AI33" s="8"/>
-      <c r="AJ33" s="8"/>
-      <c r="AK33" s="8"/>
-      <c r="AL33" s="8"/>
-      <c r="AM33" s="8"/>
-      <c r="AN33" s="8"/>
-      <c r="AO33" s="8"/>
-      <c r="AP33" s="8"/>
-      <c r="AQ33" s="8"/>
-      <c r="AR33" s="8"/>
-      <c r="AS33" s="8"/>
-      <c r="AT33" s="8"/>
-      <c r="AU33" s="8"/>
-      <c r="AV33" s="8"/>
-      <c r="AW33" s="8"/>
-      <c r="AX33" s="8"/>
-      <c r="AY33" s="8"/>
-      <c r="AZ33" s="8"/>
-      <c r="BA33" s="8"/>
-      <c r="BB33" s="8"/>
-      <c r="BC33" s="8"/>
+    <row r="37" spans="1:55" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
+      <c r="AM37" s="8"/>
+      <c r="AN37" s="8"/>
+      <c r="AO37" s="8"/>
+      <c r="AP37" s="8"/>
+      <c r="AQ37" s="8"/>
+      <c r="AR37" s="8"/>
+      <c r="AS37" s="8"/>
+      <c r="AT37" s="8"/>
+      <c r="AU37" s="8"/>
+      <c r="AV37" s="8"/>
+      <c r="AW37" s="8"/>
+      <c r="AX37" s="8"/>
+      <c r="AY37" s="8"/>
+      <c r="AZ37" s="8"/>
+      <c r="BA37" s="8"/>
+      <c r="BB37" s="8"/>
+      <c r="BC37" s="8"/>
     </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
+    <row r="38" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A38" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32" t="s">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32" t="s">
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="29" t="s">
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="29"/>
-      <c r="AB34" s="29"/>
-      <c r="AC34" s="29"/>
-      <c r="AD34" s="29"/>
-      <c r="AE34" s="32" t="s">
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AF34" s="32"/>
-      <c r="AG34" s="32"/>
-      <c r="AH34" s="32"/>
-      <c r="AI34" s="32"/>
-      <c r="AJ34" s="32"/>
-      <c r="AK34" s="32"/>
-      <c r="AL34" s="32"/>
-      <c r="AM34" s="32"/>
-      <c r="AN34" s="32"/>
-      <c r="AO34" s="32"/>
-      <c r="AP34" s="32"/>
-      <c r="AQ34" s="32"/>
-      <c r="AR34" s="32"/>
-      <c r="AS34" s="32"/>
-      <c r="AT34" s="32"/>
-      <c r="AU34" s="32"/>
-      <c r="AV34" s="32"/>
-      <c r="AW34" s="32"/>
-      <c r="AX34" s="32"/>
-      <c r="AY34" s="32"/>
-      <c r="AZ34" s="32"/>
-      <c r="BA34" s="32"/>
-      <c r="BB34" s="32"/>
-      <c r="BC34" s="32"/>
+      <c r="AF38" s="32"/>
+      <c r="AG38" s="32"/>
+      <c r="AH38" s="32"/>
+      <c r="AI38" s="32"/>
+      <c r="AJ38" s="32"/>
+      <c r="AK38" s="32"/>
+      <c r="AL38" s="32"/>
+      <c r="AM38" s="32"/>
+      <c r="AN38" s="32"/>
+      <c r="AO38" s="32"/>
+      <c r="AP38" s="32"/>
+      <c r="AQ38" s="32"/>
+      <c r="AR38" s="32"/>
+      <c r="AS38" s="32"/>
+      <c r="AT38" s="32"/>
+      <c r="AU38" s="32"/>
+      <c r="AV38" s="32"/>
+      <c r="AW38" s="32"/>
+      <c r="AX38" s="32"/>
+      <c r="AY38" s="32"/>
+      <c r="AZ38" s="32"/>
+      <c r="BA38" s="32"/>
+      <c r="BB38" s="32"/>
+      <c r="BC38" s="32"/>
     </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="29"/>
-      <c r="AA35" s="29"/>
-      <c r="AB35" s="29"/>
-      <c r="AC35" s="29"/>
-      <c r="AD35" s="29"/>
-      <c r="AE35" s="32"/>
-      <c r="AF35" s="32"/>
-      <c r="AG35" s="32"/>
-      <c r="AH35" s="32"/>
-      <c r="AI35" s="32"/>
-      <c r="AJ35" s="32"/>
-      <c r="AK35" s="32"/>
-      <c r="AL35" s="32"/>
-      <c r="AM35" s="32"/>
-      <c r="AN35" s="32"/>
-      <c r="AO35" s="32"/>
-      <c r="AP35" s="32"/>
-      <c r="AQ35" s="32"/>
-      <c r="AR35" s="32"/>
-      <c r="AS35" s="32"/>
-      <c r="AT35" s="32"/>
-      <c r="AU35" s="32"/>
-      <c r="AV35" s="32"/>
-      <c r="AW35" s="32"/>
-      <c r="AX35" s="32"/>
-      <c r="AY35" s="32"/>
-      <c r="AZ35" s="32"/>
-      <c r="BA35" s="32"/>
-      <c r="BB35" s="32"/>
-      <c r="BC35" s="32"/>
+    <row r="39" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="32"/>
+      <c r="AF39" s="32"/>
+      <c r="AG39" s="32"/>
+      <c r="AH39" s="32"/>
+      <c r="AI39" s="32"/>
+      <c r="AJ39" s="32"/>
+      <c r="AK39" s="32"/>
+      <c r="AL39" s="32"/>
+      <c r="AM39" s="32"/>
+      <c r="AN39" s="32"/>
+      <c r="AO39" s="32"/>
+      <c r="AP39" s="32"/>
+      <c r="AQ39" s="32"/>
+      <c r="AR39" s="32"/>
+      <c r="AS39" s="32"/>
+      <c r="AT39" s="32"/>
+      <c r="AU39" s="32"/>
+      <c r="AV39" s="32"/>
+      <c r="AW39" s="32"/>
+      <c r="AX39" s="32"/>
+      <c r="AY39" s="32"/>
+      <c r="AZ39" s="32"/>
+      <c r="BA39" s="32"/>
+      <c r="BB39" s="32"/>
+      <c r="BC39" s="32"/>
     </row>
-    <row r="36" spans="1:55" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
+    <row r="40" spans="1:55" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="R40" s="40"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="40"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="40"/>
+      <c r="Y40" s="40"/>
+      <c r="Z40" s="40"/>
+      <c r="AA40" s="40"/>
+      <c r="AB40" s="40"/>
+      <c r="AC40" s="40"/>
+      <c r="AD40" s="41"/>
+      <c r="AE40" s="39"/>
+      <c r="AF40" s="40"/>
+      <c r="AG40" s="40"/>
+      <c r="AH40" s="40"/>
+      <c r="AI40" s="40"/>
+      <c r="AJ40" s="40"/>
+      <c r="AK40" s="40"/>
+      <c r="AL40" s="40"/>
+      <c r="AM40" s="40"/>
+      <c r="AN40" s="40"/>
+      <c r="AO40" s="40"/>
+      <c r="AP40" s="40"/>
+      <c r="AQ40" s="40"/>
+      <c r="AR40" s="40"/>
+      <c r="AS40" s="40"/>
+      <c r="AT40" s="40"/>
+      <c r="AU40" s="40"/>
+      <c r="AV40" s="40"/>
+      <c r="AW40" s="40"/>
+      <c r="AX40" s="40"/>
+      <c r="AY40" s="40"/>
+      <c r="AZ40" s="40"/>
+      <c r="BA40" s="40"/>
+      <c r="BB40" s="40"/>
+      <c r="BC40" s="41"/>
+    </row>
+    <row r="41" spans="1:55" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="40"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="41"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="40"/>
+      <c r="Y41" s="40"/>
+      <c r="Z41" s="40"/>
+      <c r="AA41" s="40"/>
+      <c r="AB41" s="40"/>
+      <c r="AC41" s="40"/>
+      <c r="AD41" s="41"/>
+      <c r="AE41" s="39"/>
+      <c r="AF41" s="40"/>
+      <c r="AG41" s="40"/>
+      <c r="AH41" s="40"/>
+      <c r="AI41" s="40"/>
+      <c r="AJ41" s="40"/>
+      <c r="AK41" s="40"/>
+      <c r="AL41" s="40"/>
+      <c r="AM41" s="40"/>
+      <c r="AN41" s="40"/>
+      <c r="AO41" s="40"/>
+      <c r="AP41" s="40"/>
+      <c r="AQ41" s="40"/>
+      <c r="AR41" s="40"/>
+      <c r="AS41" s="40"/>
+      <c r="AT41" s="40"/>
+      <c r="AU41" s="40"/>
+      <c r="AV41" s="40"/>
+      <c r="AW41" s="40"/>
+      <c r="AX41" s="40"/>
+      <c r="AY41" s="40"/>
+      <c r="AZ41" s="40"/>
+      <c r="BA41" s="40"/>
+      <c r="BB41" s="40"/>
+      <c r="BC41" s="41"/>
+    </row>
+    <row r="42" spans="1:55" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="R42" s="40"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="40"/>
+      <c r="U42" s="40"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="40"/>
+      <c r="Y42" s="40"/>
+      <c r="Z42" s="40"/>
+      <c r="AA42" s="40"/>
+      <c r="AB42" s="40"/>
+      <c r="AC42" s="40"/>
+      <c r="AD42" s="41"/>
+      <c r="AE42" s="39"/>
+      <c r="AF42" s="40"/>
+      <c r="AG42" s="40"/>
+      <c r="AH42" s="40"/>
+      <c r="AI42" s="40"/>
+      <c r="AJ42" s="40"/>
+      <c r="AK42" s="40"/>
+      <c r="AL42" s="40"/>
+      <c r="AM42" s="40"/>
+      <c r="AN42" s="40"/>
+      <c r="AO42" s="40"/>
+      <c r="AP42" s="40"/>
+      <c r="AQ42" s="40"/>
+      <c r="AR42" s="40"/>
+      <c r="AS42" s="40"/>
+      <c r="AT42" s="40"/>
+      <c r="AU42" s="40"/>
+      <c r="AV42" s="40"/>
+      <c r="AW42" s="40"/>
+      <c r="AX42" s="40"/>
+      <c r="AY42" s="40"/>
+      <c r="AZ42" s="40"/>
+      <c r="BA42" s="40"/>
+      <c r="BB42" s="40"/>
+      <c r="BC42" s="41"/>
+    </row>
+    <row r="43" spans="1:55" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="R43" s="40"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="40"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="40"/>
+      <c r="Y43" s="40"/>
+      <c r="Z43" s="40"/>
+      <c r="AA43" s="40"/>
+      <c r="AB43" s="40"/>
+      <c r="AC43" s="40"/>
+      <c r="AD43" s="41"/>
+      <c r="AE43" s="39"/>
+      <c r="AF43" s="40"/>
+      <c r="AG43" s="40"/>
+      <c r="AH43" s="40"/>
+      <c r="AI43" s="40"/>
+      <c r="AJ43" s="40"/>
+      <c r="AK43" s="40"/>
+      <c r="AL43" s="40"/>
+      <c r="AM43" s="40"/>
+      <c r="AN43" s="40"/>
+      <c r="AO43" s="40"/>
+      <c r="AP43" s="40"/>
+      <c r="AQ43" s="40"/>
+      <c r="AR43" s="40"/>
+      <c r="AS43" s="40"/>
+      <c r="AT43" s="40"/>
+      <c r="AU43" s="40"/>
+      <c r="AV43" s="40"/>
+      <c r="AW43" s="40"/>
+      <c r="AX43" s="40"/>
+      <c r="AY43" s="40"/>
+      <c r="AZ43" s="40"/>
+      <c r="BA43" s="40"/>
+      <c r="BB43" s="40"/>
+      <c r="BC43" s="41"/>
+    </row>
+    <row r="44" spans="1:55" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="53" t="s">
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="41" t="s">
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="42" t="s">
+      <c r="R44" s="44"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="X36" s="42"/>
-      <c r="Y36" s="42"/>
-      <c r="Z36" s="42"/>
-      <c r="AA36" s="42"/>
-      <c r="AB36" s="42"/>
-      <c r="AC36" s="42"/>
-      <c r="AD36" s="42"/>
-      <c r="AE36" s="52" t="s">
+      <c r="X44" s="52"/>
+      <c r="Y44" s="52"/>
+      <c r="Z44" s="52"/>
+      <c r="AA44" s="52"/>
+      <c r="AB44" s="52"/>
+      <c r="AC44" s="52"/>
+      <c r="AD44" s="52"/>
+      <c r="AE44" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AF36" s="52"/>
-      <c r="AG36" s="52"/>
-      <c r="AH36" s="52"/>
-      <c r="AI36" s="52"/>
-      <c r="AJ36" s="52"/>
-      <c r="AK36" s="52"/>
-      <c r="AL36" s="52"/>
-      <c r="AM36" s="52"/>
-      <c r="AN36" s="52"/>
-      <c r="AO36" s="52"/>
-      <c r="AP36" s="52"/>
-      <c r="AQ36" s="52"/>
-      <c r="AR36" s="52"/>
-      <c r="AS36" s="52"/>
-      <c r="AT36" s="52"/>
-      <c r="AU36" s="52"/>
-      <c r="AV36" s="52"/>
-      <c r="AW36" s="52"/>
-      <c r="AX36" s="52"/>
-      <c r="AY36" s="52"/>
-      <c r="AZ36" s="52"/>
-      <c r="BA36" s="52"/>
-      <c r="BB36" s="52"/>
-      <c r="BC36" s="52"/>
+      <c r="AF44" s="47"/>
+      <c r="AG44" s="47"/>
+      <c r="AH44" s="47"/>
+      <c r="AI44" s="47"/>
+      <c r="AJ44" s="47"/>
+      <c r="AK44" s="47"/>
+      <c r="AL44" s="47"/>
+      <c r="AM44" s="47"/>
+      <c r="AN44" s="47"/>
+      <c r="AO44" s="47"/>
+      <c r="AP44" s="47"/>
+      <c r="AQ44" s="47"/>
+      <c r="AR44" s="47"/>
+      <c r="AS44" s="47"/>
+      <c r="AT44" s="47"/>
+      <c r="AU44" s="47"/>
+      <c r="AV44" s="47"/>
+      <c r="AW44" s="47"/>
+      <c r="AX44" s="47"/>
+      <c r="AY44" s="47"/>
+      <c r="AZ44" s="47"/>
+      <c r="BA44" s="47"/>
+      <c r="BB44" s="47"/>
+      <c r="BC44" s="47"/>
     </row>
-    <row r="37" spans="1:55" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41"/>
-      <c r="V37" s="41"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
-      <c r="Y37" s="42"/>
-      <c r="Z37" s="42"/>
-      <c r="AA37" s="42"/>
-      <c r="AB37" s="42"/>
-      <c r="AC37" s="42"/>
-      <c r="AD37" s="42"/>
-      <c r="AE37" s="52"/>
-      <c r="AF37" s="52"/>
-      <c r="AG37" s="52"/>
-      <c r="AH37" s="52"/>
-      <c r="AI37" s="52"/>
-      <c r="AJ37" s="52"/>
-      <c r="AK37" s="52"/>
-      <c r="AL37" s="52"/>
-      <c r="AM37" s="52"/>
-      <c r="AN37" s="52"/>
-      <c r="AO37" s="52"/>
-      <c r="AP37" s="52"/>
-      <c r="AQ37" s="52"/>
-      <c r="AR37" s="52"/>
-      <c r="AS37" s="52"/>
-      <c r="AT37" s="52"/>
-      <c r="AU37" s="52"/>
-      <c r="AV37" s="52"/>
-      <c r="AW37" s="52"/>
-      <c r="AX37" s="52"/>
-      <c r="AY37" s="52"/>
-      <c r="AZ37" s="52"/>
-      <c r="BA37" s="52"/>
-      <c r="BB37" s="52"/>
-      <c r="BC37" s="52"/>
+    <row r="45" spans="1:55" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="69"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="44"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="52"/>
+      <c r="X45" s="52"/>
+      <c r="Y45" s="52"/>
+      <c r="Z45" s="52"/>
+      <c r="AA45" s="52"/>
+      <c r="AB45" s="52"/>
+      <c r="AC45" s="52"/>
+      <c r="AD45" s="52"/>
+      <c r="AE45" s="47"/>
+      <c r="AF45" s="47"/>
+      <c r="AG45" s="47"/>
+      <c r="AH45" s="47"/>
+      <c r="AI45" s="47"/>
+      <c r="AJ45" s="47"/>
+      <c r="AK45" s="47"/>
+      <c r="AL45" s="47"/>
+      <c r="AM45" s="47"/>
+      <c r="AN45" s="47"/>
+      <c r="AO45" s="47"/>
+      <c r="AP45" s="47"/>
+      <c r="AQ45" s="47"/>
+      <c r="AR45" s="47"/>
+      <c r="AS45" s="47"/>
+      <c r="AT45" s="47"/>
+      <c r="AU45" s="47"/>
+      <c r="AV45" s="47"/>
+      <c r="AW45" s="47"/>
+      <c r="AX45" s="47"/>
+      <c r="AY45" s="47"/>
+      <c r="AZ45" s="47"/>
+      <c r="BA45" s="47"/>
+      <c r="BB45" s="47"/>
+      <c r="BC45" s="47"/>
     </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="25"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="25"/>
-      <c r="AD38" s="25"/>
-      <c r="AE38" s="25"/>
-      <c r="AF38" s="25"/>
-      <c r="AG38" s="25"/>
-      <c r="AH38" s="25"/>
-      <c r="AI38" s="25"/>
-      <c r="AJ38" s="25"/>
-      <c r="AK38" s="25"/>
-      <c r="AL38" s="25"/>
-      <c r="AM38" s="25"/>
-      <c r="AN38" s="25"/>
-      <c r="AO38" s="25"/>
-      <c r="AP38" s="25"/>
-      <c r="AQ38" s="25"/>
-      <c r="AR38" s="25"/>
-      <c r="AS38" s="25"/>
-      <c r="AT38" s="25"/>
-      <c r="AU38" s="25"/>
-      <c r="AV38" s="25"/>
-      <c r="AW38" s="25"/>
-      <c r="AX38" s="25"/>
-      <c r="AY38" s="25"/>
-      <c r="AZ38" s="25"/>
-      <c r="BA38" s="25"/>
-      <c r="BB38" s="25"/>
-      <c r="BC38" s="25"/>
+    <row r="46" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="25"/>
+      <c r="AC46" s="25"/>
+      <c r="AD46" s="25"/>
+      <c r="AE46" s="25"/>
+      <c r="AF46" s="25"/>
+      <c r="AG46" s="25"/>
+      <c r="AH46" s="25"/>
+      <c r="AI46" s="25"/>
+      <c r="AJ46" s="25"/>
+      <c r="AK46" s="25"/>
+      <c r="AL46" s="25"/>
+      <c r="AM46" s="25"/>
+      <c r="AN46" s="25"/>
+      <c r="AO46" s="25"/>
+      <c r="AP46" s="25"/>
+      <c r="AQ46" s="25"/>
+      <c r="AR46" s="25"/>
+      <c r="AS46" s="25"/>
+      <c r="AT46" s="25"/>
+      <c r="AU46" s="25"/>
+      <c r="AV46" s="25"/>
+      <c r="AW46" s="25"/>
+      <c r="AX46" s="25"/>
+      <c r="AY46" s="25"/>
+      <c r="AZ46" s="25"/>
+      <c r="BA46" s="25"/>
+      <c r="BB46" s="25"/>
+      <c r="BC46" s="25"/>
     </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="25"/>
-      <c r="W39" s="25"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="25"/>
-      <c r="AB39" s="25"/>
-      <c r="AC39" s="25"/>
-      <c r="AD39" s="25"/>
-      <c r="AE39" s="25"/>
-      <c r="AF39" s="25"/>
-      <c r="AG39" s="25"/>
-      <c r="AH39" s="25"/>
-      <c r="AI39" s="25"/>
-      <c r="AJ39" s="25"/>
-      <c r="AK39" s="25"/>
-      <c r="AL39" s="25"/>
-      <c r="AM39" s="25"/>
-      <c r="AN39" s="25"/>
-      <c r="AO39" s="25"/>
-      <c r="AP39" s="25"/>
-      <c r="AQ39" s="25"/>
-      <c r="AR39" s="25"/>
-      <c r="AS39" s="25"/>
-      <c r="AT39" s="25"/>
-      <c r="AU39" s="25"/>
-      <c r="AV39" s="25"/>
-      <c r="AW39" s="25"/>
-      <c r="AX39" s="25"/>
-      <c r="AY39" s="25"/>
-      <c r="AZ39" s="25"/>
-      <c r="BA39" s="25"/>
-      <c r="BB39" s="25"/>
-      <c r="BC39" s="25"/>
+    <row r="47" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="25"/>
+      <c r="AD47" s="25"/>
+      <c r="AE47" s="25"/>
+      <c r="AF47" s="25"/>
+      <c r="AG47" s="25"/>
+      <c r="AH47" s="25"/>
+      <c r="AI47" s="25"/>
+      <c r="AJ47" s="25"/>
+      <c r="AK47" s="25"/>
+      <c r="AL47" s="25"/>
+      <c r="AM47" s="25"/>
+      <c r="AN47" s="25"/>
+      <c r="AO47" s="25"/>
+      <c r="AP47" s="25"/>
+      <c r="AQ47" s="25"/>
+      <c r="AR47" s="25"/>
+      <c r="AS47" s="25"/>
+      <c r="AT47" s="25"/>
+      <c r="AU47" s="25"/>
+      <c r="AV47" s="25"/>
+      <c r="AW47" s="25"/>
+      <c r="AX47" s="25"/>
+      <c r="AY47" s="25"/>
+      <c r="AZ47" s="25"/>
+      <c r="BA47" s="25"/>
+      <c r="BB47" s="25"/>
+      <c r="BC47" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="134">
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="I36:P36"/>
-    <mergeCell ref="Q36:V36"/>
-    <mergeCell ref="W36:AD36"/>
-    <mergeCell ref="AE36:BC36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="I37:P37"/>
-    <mergeCell ref="Q37:V37"/>
-    <mergeCell ref="W37:AD37"/>
-    <mergeCell ref="AE37:BC37"/>
-    <mergeCell ref="A31:E32"/>
-    <mergeCell ref="F31:W32"/>
-    <mergeCell ref="X31:AB32"/>
-    <mergeCell ref="AC31:BC32"/>
-    <mergeCell ref="A34:H35"/>
-    <mergeCell ref="I34:P35"/>
-    <mergeCell ref="Q34:V35"/>
-    <mergeCell ref="W34:AD35"/>
-    <mergeCell ref="AE34:BC35"/>
-    <mergeCell ref="AK28:AM28"/>
-    <mergeCell ref="AN28:AT28"/>
-    <mergeCell ref="AU28:AW28"/>
-    <mergeCell ref="AX28:BC28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="O29:W29"/>
-    <mergeCell ref="X29:AA29"/>
-    <mergeCell ref="AB29:AJ29"/>
-    <mergeCell ref="AK29:AM29"/>
-    <mergeCell ref="AN29:AT29"/>
-    <mergeCell ref="AU29:AW29"/>
-    <mergeCell ref="AX29:BC29"/>
-    <mergeCell ref="A28:J29"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:W28"/>
-    <mergeCell ref="X28:AA28"/>
-    <mergeCell ref="A25:H25"/>
+  <mergeCells count="174">
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="I45:P45"/>
+    <mergeCell ref="Q45:V45"/>
+    <mergeCell ref="W45:AD45"/>
+    <mergeCell ref="AE45:BC45"/>
+    <mergeCell ref="X35:AB36"/>
+    <mergeCell ref="AC35:BC36"/>
+    <mergeCell ref="A38:H39"/>
+    <mergeCell ref="I38:P39"/>
+    <mergeCell ref="Q38:V39"/>
+    <mergeCell ref="W38:AD39"/>
+    <mergeCell ref="AE38:BC39"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="I44:P44"/>
+    <mergeCell ref="Q44:V44"/>
+    <mergeCell ref="W44:AD44"/>
+    <mergeCell ref="AE44:BC44"/>
+    <mergeCell ref="AE28:BC28"/>
+    <mergeCell ref="Q29:V29"/>
+    <mergeCell ref="I29:P29"/>
+    <mergeCell ref="W29:AD29"/>
+    <mergeCell ref="AK32:AM32"/>
+    <mergeCell ref="AN32:AT32"/>
+    <mergeCell ref="AU32:AW32"/>
+    <mergeCell ref="AX32:BC32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="O33:W33"/>
+    <mergeCell ref="X33:AA33"/>
+    <mergeCell ref="AB33:AJ33"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="AN33:AT33"/>
+    <mergeCell ref="AU33:AW33"/>
+    <mergeCell ref="AX33:BC33"/>
+    <mergeCell ref="A19:E20"/>
+    <mergeCell ref="F19:W20"/>
+    <mergeCell ref="X19:AB20"/>
+    <mergeCell ref="AC19:BC20"/>
+    <mergeCell ref="A32:J33"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:W32"/>
+    <mergeCell ref="X32:AA32"/>
+    <mergeCell ref="A29:H29"/>
     <mergeCell ref="A22:H23"/>
     <mergeCell ref="I22:P23"/>
     <mergeCell ref="Q22:V23"/>
     <mergeCell ref="W22:AD23"/>
-    <mergeCell ref="I26:P26"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="Q26:V26"/>
-    <mergeCell ref="W26:AD26"/>
-    <mergeCell ref="AB28:AJ28"/>
+    <mergeCell ref="I30:P30"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="Q30:V30"/>
+    <mergeCell ref="W30:AD30"/>
+    <mergeCell ref="AB32:AJ32"/>
     <mergeCell ref="AE22:BC23"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="Q28:V28"/>
+    <mergeCell ref="W28:AD28"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AX1:BC1"/>
     <mergeCell ref="K17:N17"/>
     <mergeCell ref="O17:W17"/>
     <mergeCell ref="X17:AA17"/>
@@ -26982,19 +27599,17 @@
     <mergeCell ref="AN17:AT17"/>
     <mergeCell ref="AU17:AW17"/>
     <mergeCell ref="AX17:BC17"/>
-    <mergeCell ref="A19:E20"/>
-    <mergeCell ref="F19:W20"/>
-    <mergeCell ref="X19:AB20"/>
-    <mergeCell ref="AC19:BC20"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AN2:AT2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AX2:BC2"/>
+    <mergeCell ref="A4:E5"/>
+    <mergeCell ref="F4:W5"/>
+    <mergeCell ref="X4:AB5"/>
+    <mergeCell ref="I7:P8"/>
+    <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="AC4:BC5"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="Q9:V9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="Q12:V12"/>
-    <mergeCell ref="W9:AD9"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:W1"/>
     <mergeCell ref="X1:AA1"/>
@@ -27008,27 +27623,7 @@
     <mergeCell ref="W7:AD8"/>
     <mergeCell ref="AE7:BC8"/>
     <mergeCell ref="AN1:AT1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AX1:BC1"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AN2:AT2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="A4:E5"/>
-    <mergeCell ref="F4:W5"/>
-    <mergeCell ref="X4:AB5"/>
-    <mergeCell ref="I7:P8"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="I24:P24"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="Q24:V24"/>
-    <mergeCell ref="W24:AD24"/>
-    <mergeCell ref="AE24:BC24"/>
-    <mergeCell ref="Q25:V25"/>
-    <mergeCell ref="I25:P25"/>
-    <mergeCell ref="W25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="AE29:BC29"/>
     <mergeCell ref="I9:P9"/>
     <mergeCell ref="I10:P10"/>
     <mergeCell ref="A13:H13"/>
@@ -27062,10 +27657,59 @@
     <mergeCell ref="AE14:BC14"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="Q12:V12"/>
+    <mergeCell ref="W9:AD9"/>
+    <mergeCell ref="AE27:BC27"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="AE24:BC24"/>
+    <mergeCell ref="W27:AD27"/>
+    <mergeCell ref="W26:AD26"/>
+    <mergeCell ref="W25:AD25"/>
+    <mergeCell ref="W24:AD24"/>
+    <mergeCell ref="Q27:V27"/>
+    <mergeCell ref="Q26:V26"/>
+    <mergeCell ref="Q25:V25"/>
+    <mergeCell ref="Q24:V24"/>
+    <mergeCell ref="I27:P27"/>
+    <mergeCell ref="I26:P26"/>
+    <mergeCell ref="I25:P25"/>
+    <mergeCell ref="I24:P24"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="I40:P40"/>
+    <mergeCell ref="A35:E36"/>
+    <mergeCell ref="F35:W36"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="I43:P43"/>
+    <mergeCell ref="Q43:V43"/>
+    <mergeCell ref="W43:AD43"/>
+    <mergeCell ref="AE43:BC43"/>
+    <mergeCell ref="Q40:V40"/>
+    <mergeCell ref="W40:AD40"/>
+    <mergeCell ref="AE40:BC40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="I41:P41"/>
+    <mergeCell ref="Q41:V41"/>
+    <mergeCell ref="W41:AD41"/>
+    <mergeCell ref="AE41:BC41"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="I42:P42"/>
+    <mergeCell ref="Q42:V42"/>
+    <mergeCell ref="W42:AD42"/>
+    <mergeCell ref="AE42:BC42"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q9:Q15 Q24:Q26 Q36:Q37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q9:Q15 Q28:Q30 Q44:Q45" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>部品種別</formula1>
     </dataValidation>
   </dataValidations>
@@ -27081,60 +27725,60 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
